--- a/user-data/poorest-20-percent/poorest-20-percent.xlsx
+++ b/user-data/poorest-20-percent/poorest-20-percent.xlsx
@@ -34,34 +34,82 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
     <t xml:space="preserve">AM</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
     <t xml:space="preserve">AZ</t>
   </si>
   <si>
     <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -70,58 +118,106 @@
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -130,84 +226,18 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">EE</t>
   </si>
   <si>
@@ -226,148 +256,340 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">FM</t>
   </si>
   <si>
     <t xml:space="preserve">Micronesia</t>
   </si>
   <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
@@ -376,298 +598,118 @@
     <t xml:space="preserve">Saint Lucia</t>
   </si>
   <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
     <t xml:space="preserve">SR</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZ</t>
   </si>
   <si>
     <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
   </si>
   <si>
     <t xml:space="preserve">TG</t>
@@ -676,22 +718,28 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">TM</t>
@@ -700,40 +748,16 @@
     <t xml:space="preserve">Turkmenistan</t>
   </si>
   <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">TV</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvalu</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -742,12 +766,6 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">UY</t>
   </si>
   <si>
@@ -760,6 +778,12 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE</t>
   </si>
   <si>
@@ -770,30 +794,6 @@
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1313,7 +1313,7 @@
         <v>2013</v>
       </c>
       <c r="D3" t="n">
-        <v>264316</v>
+        <v>9727060</v>
       </c>
     </row>
     <row r="4">
@@ -1327,7 +1327,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="n">
-        <v>9727060</v>
+        <v>264316</v>
       </c>
     </row>
     <row r="5">
@@ -1355,7 +1355,7 @@
         <v>2013</v>
       </c>
       <c r="D6" t="n">
-        <v>10314</v>
+        <v>49772572</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>2013</v>
       </c>
       <c r="D7" t="n">
-        <v>49772572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1383,7 @@
         <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v>11160072</v>
+        <v>62628</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>220281</v>
+        <v>6798816</v>
       </c>
     </row>
     <row r="10">
@@ -1411,7 +1411,7 @@
         <v>2013</v>
       </c>
       <c r="D10" t="n">
-        <v>9071208</v>
+        <v>36150</v>
       </c>
     </row>
     <row r="11">
@@ -1425,7 +1425,7 @@
         <v>2013</v>
       </c>
       <c r="D11" t="n">
-        <v>6798816</v>
+        <v>1104480</v>
       </c>
     </row>
     <row r="12">
@@ -1439,7 +1439,7 @@
         <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v>1104480</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="13">
@@ -1453,7 +1453,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>14032662</v>
+        <v>472188</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +1467,7 @@
         <v>2013</v>
       </c>
       <c r="D14" t="n">
-        <v>36150</v>
+        <v>14032662</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +1481,7 @@
         <v>2013</v>
       </c>
       <c r="D15" t="n">
-        <v>472188</v>
+        <v>220281</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1495,7 @@
         <v>2013</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11160072</v>
       </c>
     </row>
     <row r="17">
@@ -1509,7 +1509,7 @@
         <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>62628</v>
+        <v>9071208</v>
       </c>
     </row>
     <row r="18">
@@ -1523,7 +1523,7 @@
         <v>2013</v>
       </c>
       <c r="D18" t="n">
-        <v>62030250</v>
+        <v>1256164</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
         <v>2013</v>
       </c>
       <c r="D19" t="n">
-        <v>4125489</v>
+        <v>8555292</v>
       </c>
     </row>
     <row r="20">
@@ -1551,7 +1551,7 @@
         <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>2199829</v>
+        <v>76398</v>
       </c>
     </row>
     <row r="21">
@@ -1565,7 +1565,7 @@
         <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>9022026</v>
+        <v>4125489</v>
       </c>
     </row>
     <row r="22">
@@ -1579,7 +1579,7 @@
         <v>2013</v>
       </c>
       <c r="D22" t="n">
-        <v>249636</v>
+        <v>6494785</v>
       </c>
     </row>
     <row r="23">
@@ -1593,7 +1593,7 @@
         <v>2013</v>
       </c>
       <c r="D23" t="n">
-        <v>8555292</v>
+        <v>249636</v>
       </c>
     </row>
     <row r="24">
@@ -1635,7 +1635,7 @@
         <v>2013</v>
       </c>
       <c r="D26" t="n">
-        <v>137061</v>
+        <v>185325</v>
       </c>
     </row>
     <row r="27">
@@ -1649,7 +1649,7 @@
         <v>2013</v>
       </c>
       <c r="D27" t="n">
-        <v>76398</v>
+        <v>2199829</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1663,7 @@
         <v>2013</v>
       </c>
       <c r="D28" t="n">
-        <v>15765</v>
+        <v>137061</v>
       </c>
     </row>
     <row r="29">
@@ -1677,7 +1677,7 @@
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>284144</v>
+        <v>9022026</v>
       </c>
     </row>
     <row r="30">
@@ -1691,7 +1691,7 @@
         <v>2013</v>
       </c>
       <c r="D30" t="n">
-        <v>581848</v>
+        <v>57084</v>
       </c>
     </row>
     <row r="31">
@@ -1705,7 +1705,7 @@
         <v>2013</v>
       </c>
       <c r="D31" t="n">
-        <v>1202688</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="32">
@@ -1719,7 +1719,7 @@
         <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>16632</v>
+        <v>284144</v>
       </c>
     </row>
     <row r="33">
@@ -1733,7 +1733,7 @@
         <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>40528416</v>
+        <v>581848</v>
       </c>
     </row>
     <row r="34">
@@ -1747,7 +1747,7 @@
         <v>2013</v>
       </c>
       <c r="D34" t="n">
-        <v>90024</v>
+        <v>62030250</v>
       </c>
     </row>
     <row r="35">
@@ -1761,7 +1761,7 @@
         <v>2013</v>
       </c>
       <c r="D35" t="n">
-        <v>29080</v>
+        <v>1202688</v>
       </c>
     </row>
     <row r="36">
@@ -1775,7 +1775,7 @@
         <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>237765</v>
+        <v>436044</v>
       </c>
     </row>
     <row r="37">
@@ -1789,7 +1789,7 @@
         <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>786618</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="38">
@@ -1803,7 +1803,7 @@
         <v>2013</v>
       </c>
       <c r="D38" t="n">
-        <v>5757816</v>
+        <v>40528416</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>2013</v>
       </c>
       <c r="D39" t="n">
-        <v>1107414</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="40">
@@ -1831,7 +1831,7 @@
         <v>2013</v>
       </c>
       <c r="D40" t="n">
-        <v>6703950</v>
+        <v>237765</v>
       </c>
     </row>
     <row r="41">
@@ -1845,7 +1845,7 @@
         <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>2857149</v>
+        <v>1107414</v>
       </c>
     </row>
     <row r="42">
@@ -1859,7 +1859,7 @@
         <v>2013</v>
       </c>
       <c r="D42" t="n">
-        <v>1382832</v>
+        <v>786618</v>
       </c>
     </row>
     <row r="43">
@@ -1873,7 +1873,7 @@
         <v>2013</v>
       </c>
       <c r="D43" t="n">
-        <v>93480</v>
+        <v>5757816</v>
       </c>
     </row>
     <row r="44">
@@ -1887,7 +1887,7 @@
         <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>2220765</v>
+        <v>2857149</v>
       </c>
     </row>
     <row r="45">
@@ -1901,7 +1901,7 @@
         <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>57084</v>
+        <v>6703950</v>
       </c>
     </row>
     <row r="46">
@@ -1915,7 +1915,7 @@
         <v>2013</v>
       </c>
       <c r="D46" t="n">
-        <v>6600104</v>
+        <v>1382832</v>
       </c>
     </row>
     <row r="47">
@@ -1929,7 +1929,7 @@
         <v>2013</v>
       </c>
       <c r="D47" t="n">
-        <v>33626</v>
+        <v>93480</v>
       </c>
     </row>
     <row r="48">
@@ -1943,7 +1943,7 @@
         <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v>67842900</v>
+        <v>6600104</v>
       </c>
     </row>
     <row r="49">
@@ -1957,7 +1957,7 @@
         <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>490048500</v>
+        <v>2220765</v>
       </c>
     </row>
     <row r="50">
@@ -1971,7 +1971,7 @@
         <v>2013</v>
       </c>
       <c r="D50" t="n">
-        <v>200590</v>
+        <v>33626</v>
       </c>
     </row>
     <row r="51">
@@ -1985,7 +1985,7 @@
         <v>2013</v>
       </c>
       <c r="D51" t="n">
-        <v>132790</v>
+        <v>490048500</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +1999,7 @@
         <v>2013</v>
       </c>
       <c r="D52" t="n">
-        <v>17406096</v>
+        <v>67842900</v>
       </c>
     </row>
     <row r="53">
@@ -2013,7 +2013,7 @@
         <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>710424</v>
+        <v>200590</v>
       </c>
     </row>
     <row r="54">
@@ -2027,7 +2027,7 @@
         <v>2013</v>
       </c>
       <c r="D54" t="n">
-        <v>1256164</v>
+        <v>132790</v>
       </c>
     </row>
     <row r="55">
@@ -2041,7 +2041,7 @@
         <v>2013</v>
       </c>
       <c r="D55" t="n">
-        <v>26422</v>
+        <v>15336</v>
       </c>
     </row>
     <row r="56">
@@ -2055,7 +2055,7 @@
         <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>185325</v>
+        <v>17406096</v>
       </c>
     </row>
     <row r="57">
@@ -2069,7 +2069,7 @@
         <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>15336</v>
+        <v>26422</v>
       </c>
     </row>
     <row r="58">
@@ -2083,7 +2083,7 @@
         <v>2013</v>
       </c>
       <c r="D58" t="n">
-        <v>2104942</v>
+        <v>34398</v>
       </c>
     </row>
     <row r="59">
@@ -2097,7 +2097,7 @@
         <v>2013</v>
       </c>
       <c r="D59" t="n">
-        <v>78444</v>
+        <v>710424</v>
       </c>
     </row>
     <row r="60">
@@ -2111,7 +2111,7 @@
         <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>1461180</v>
+        <v>2104942</v>
       </c>
     </row>
     <row r="61">
@@ -2125,7 +2125,7 @@
         <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>3123120</v>
+        <v>35577</v>
       </c>
     </row>
     <row r="62">
@@ -2153,7 +2153,7 @@
         <v>2013</v>
       </c>
       <c r="D63" t="n">
-        <v>33448</v>
+        <v>3123120</v>
       </c>
     </row>
     <row r="64">
@@ -2167,7 +2167,7 @@
         <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>35577</v>
+        <v>33448</v>
       </c>
     </row>
     <row r="65">
@@ -2181,7 +2181,7 @@
         <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>1501905</v>
+        <v>97704</v>
       </c>
     </row>
     <row r="66">
@@ -2195,7 +2195,7 @@
         <v>2013</v>
       </c>
       <c r="D66" t="n">
-        <v>16732</v>
+        <v>19851012</v>
       </c>
     </row>
     <row r="67">
@@ -2209,7 +2209,7 @@
         <v>2013</v>
       </c>
       <c r="D67" t="n">
-        <v>11966</v>
+        <v>13264467</v>
       </c>
     </row>
     <row r="68">
@@ -2223,7 +2223,7 @@
         <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>19851012</v>
+        <v>111986</v>
       </c>
     </row>
     <row r="69">
@@ -2237,7 +2237,7 @@
         <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>97704</v>
+        <v>47775</v>
       </c>
     </row>
     <row r="70">
@@ -2265,7 +2265,7 @@
         <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>37180</v>
+        <v>609525</v>
       </c>
     </row>
     <row r="72">
@@ -2279,7 +2279,7 @@
         <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v>609525</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="73">
@@ -2293,7 +2293,7 @@
         <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>18900</v>
+        <v>7894612</v>
       </c>
     </row>
     <row r="74">
@@ -2307,7 +2307,7 @@
         <v>2013</v>
       </c>
       <c r="D74" t="n">
-        <v>47775</v>
+        <v>29080</v>
       </c>
     </row>
     <row r="75">
@@ -2321,7 +2321,7 @@
         <v>2013</v>
       </c>
       <c r="D75" t="n">
-        <v>13264467</v>
+        <v>16732</v>
       </c>
     </row>
     <row r="76">
@@ -2335,7 +2335,7 @@
         <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v>7894612</v>
+        <v>37180</v>
       </c>
     </row>
     <row r="77">
@@ -2349,7 +2349,7 @@
         <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>111986</v>
+        <v>11966</v>
       </c>
     </row>
     <row r="78">
@@ -2363,7 +2363,7 @@
         <v>2013</v>
       </c>
       <c r="D78" t="n">
-        <v>19791619</v>
+        <v>1501905</v>
       </c>
     </row>
     <row r="79">
@@ -2377,7 +2377,7 @@
         <v>2013</v>
       </c>
       <c r="D79" t="n">
-        <v>752705</v>
+        <v>19791619</v>
       </c>
     </row>
     <row r="80">
@@ -2391,7 +2391,7 @@
         <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>12281004</v>
+        <v>752705</v>
       </c>
     </row>
     <row r="81">
@@ -2405,7 +2405,7 @@
         <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>112955152</v>
+        <v>6940802</v>
       </c>
     </row>
     <row r="82">
@@ -2433,7 +2433,7 @@
         <v>2013</v>
       </c>
       <c r="D83" t="n">
-        <v>6940802</v>
+        <v>12281004</v>
       </c>
     </row>
     <row r="84">
@@ -2447,7 +2447,7 @@
         <v>2013</v>
       </c>
       <c r="D84" t="n">
-        <v>216027</v>
+        <v>112955152</v>
       </c>
     </row>
     <row r="85">
@@ -2461,7 +2461,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>2103216</v>
+        <v>44192241</v>
       </c>
     </row>
     <row r="86">
@@ -2475,7 +2475,7 @@
         <v>2013</v>
       </c>
       <c r="D86" t="n">
-        <v>3364793</v>
+        <v>21267</v>
       </c>
     </row>
     <row r="87">
@@ -2489,7 +2489,7 @@
         <v>2013</v>
       </c>
       <c r="D87" t="n">
-        <v>24733995</v>
+        <v>216027</v>
       </c>
     </row>
     <row r="88">
@@ -2503,7 +2503,7 @@
         <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v>44192241</v>
+        <v>3364793</v>
       </c>
     </row>
     <row r="89">
@@ -2517,7 +2517,7 @@
         <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>15216</v>
+        <v>280151</v>
       </c>
     </row>
     <row r="90">
@@ -2531,7 +2531,7 @@
         <v>2013</v>
       </c>
       <c r="D90" t="n">
-        <v>21267</v>
+        <v>2103216</v>
       </c>
     </row>
     <row r="91">
@@ -2545,7 +2545,7 @@
         <v>2013</v>
       </c>
       <c r="D91" t="n">
-        <v>280151</v>
+        <v>24733995</v>
       </c>
     </row>
     <row r="92">
@@ -2559,7 +2559,7 @@
         <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>417582</v>
+        <v>15216</v>
       </c>
     </row>
     <row r="93">
@@ -2573,7 +2573,7 @@
         <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>53700</v>
+        <v>417582</v>
       </c>
     </row>
     <row r="94">
@@ -2615,7 +2615,7 @@
         <v>2013</v>
       </c>
       <c r="D96" t="n">
-        <v>272944</v>
+        <v>78444</v>
       </c>
     </row>
     <row r="97">
@@ -2629,7 +2629,7 @@
         <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>1368</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="98">
@@ -2643,7 +2643,7 @@
         <v>2013</v>
       </c>
       <c r="D98" t="n">
-        <v>7519104</v>
+        <v>89928</v>
       </c>
     </row>
     <row r="99">
@@ -2657,7 +2657,7 @@
         <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>618</v>
+        <v>7697286</v>
       </c>
     </row>
     <row r="100">
@@ -2671,7 +2671,7 @@
         <v>2013</v>
       </c>
       <c r="D100" t="n">
-        <v>16771</v>
+        <v>53700</v>
       </c>
     </row>
     <row r="101">
@@ -2685,7 +2685,7 @@
         <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>3290850</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="102">
@@ -2699,7 +2699,7 @@
         <v>2013</v>
       </c>
       <c r="D102" t="n">
-        <v>7697286</v>
+        <v>3290850</v>
       </c>
     </row>
     <row r="103">
@@ -2713,7 +2713,7 @@
         <v>2013</v>
       </c>
       <c r="D103" t="n">
-        <v>111989</v>
+        <v>16771</v>
       </c>
     </row>
     <row r="104">
@@ -2727,7 +2727,7 @@
         <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v>9366100</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105">
@@ -2741,7 +2741,7 @@
         <v>2013</v>
       </c>
       <c r="D105" t="n">
-        <v>89928</v>
+        <v>272944</v>
       </c>
     </row>
     <row r="106">
@@ -2755,7 +2755,7 @@
         <v>2013</v>
       </c>
       <c r="D106" t="n">
-        <v>436044</v>
+        <v>14159178</v>
       </c>
     </row>
     <row r="107">
@@ -2769,7 +2769,7 @@
         <v>2013</v>
       </c>
       <c r="D107" t="n">
-        <v>683375</v>
+        <v>9366100</v>
       </c>
     </row>
     <row r="108">
@@ -2783,7 +2783,7 @@
         <v>2013</v>
       </c>
       <c r="D108" t="n">
-        <v>6494785</v>
+        <v>1461180</v>
       </c>
     </row>
     <row r="109">
@@ -2797,7 +2797,7 @@
         <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>4499649</v>
+        <v>7519104</v>
       </c>
     </row>
     <row r="110">
@@ -2811,7 +2811,7 @@
         <v>2013</v>
       </c>
       <c r="D110" t="n">
-        <v>175370</v>
+        <v>111989</v>
       </c>
     </row>
     <row r="111">
@@ -2825,7 +2825,7 @@
         <v>2013</v>
       </c>
       <c r="D111" t="n">
-        <v>3637335</v>
+        <v>683375</v>
       </c>
     </row>
     <row r="112">
@@ -2839,7 +2839,7 @@
         <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v>551768</v>
+        <v>3637335</v>
       </c>
     </row>
     <row r="113">
@@ -2853,7 +2853,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>398240</v>
+        <v>32144442</v>
       </c>
     </row>
     <row r="114">
@@ -2867,7 +2867,7 @@
         <v>2013</v>
       </c>
       <c r="D114" t="n">
-        <v>309276</v>
+        <v>175370</v>
       </c>
     </row>
     <row r="115">
@@ -2881,7 +2881,7 @@
         <v>2013</v>
       </c>
       <c r="D115" t="n">
-        <v>4400</v>
+        <v>551768</v>
       </c>
     </row>
     <row r="116">
@@ -2895,7 +2895,7 @@
         <v>2013</v>
       </c>
       <c r="D116" t="n">
-        <v>1036592</v>
+        <v>4499649</v>
       </c>
     </row>
     <row r="117">
@@ -2909,7 +2909,7 @@
         <v>2013</v>
       </c>
       <c r="D117" t="n">
-        <v>7560</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="118">
@@ -2923,7 +2923,7 @@
         <v>2013</v>
       </c>
       <c r="D118" t="n">
-        <v>640</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="119">
@@ -2937,7 +2937,7 @@
         <v>2013</v>
       </c>
       <c r="D119" t="n">
-        <v>32144442</v>
+        <v>309276</v>
       </c>
     </row>
     <row r="120">
@@ -2951,7 +2951,7 @@
         <v>2013</v>
       </c>
       <c r="D120" t="n">
-        <v>18196</v>
+        <v>1036592</v>
       </c>
     </row>
     <row r="121">
@@ -2965,7 +2965,7 @@
         <v>2013</v>
       </c>
       <c r="D121" t="n">
-        <v>19597863</v>
+        <v>398240</v>
       </c>
     </row>
     <row r="122">
@@ -2979,7 +2979,7 @@
         <v>2013</v>
       </c>
       <c r="D122" t="n">
-        <v>27962</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123">
@@ -2993,7 +2993,7 @@
         <v>2013</v>
       </c>
       <c r="D123" t="n">
-        <v>13375152</v>
+        <v>19597863</v>
       </c>
     </row>
     <row r="124">
@@ -3007,7 +3007,7 @@
         <v>2013</v>
       </c>
       <c r="D124" t="n">
-        <v>2967440</v>
+        <v>18196</v>
       </c>
     </row>
     <row r="125">
@@ -3021,7 +3021,7 @@
         <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>6974352</v>
+        <v>27962</v>
       </c>
     </row>
     <row r="126">
@@ -3035,7 +3035,7 @@
         <v>2013</v>
       </c>
       <c r="D126" t="n">
-        <v>67900</v>
+        <v>13375152</v>
       </c>
     </row>
     <row r="127">
@@ -3049,7 +3049,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>8987</v>
+        <v>67900</v>
       </c>
     </row>
     <row r="128">
@@ -3063,7 +3063,7 @@
         <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>34398</v>
+        <v>2967440</v>
       </c>
     </row>
     <row r="129">
@@ -3077,7 +3077,7 @@
         <v>2013</v>
       </c>
       <c r="D129" t="n">
-        <v>14159178</v>
+        <v>6974352</v>
       </c>
     </row>
     <row r="130">
@@ -3127,6 +3127,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3134,7 +3137,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>92510</v>
       </c>
     </row>
@@ -3142,23 +3148,32 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>264316</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9727060</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>9727060</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>264316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>80070</v>
       </c>
     </row>
@@ -3166,151 +3181,208 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>10314</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49772572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>49772572</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>11160072</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>220281</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6798816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>9071208</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>6798816</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1104480</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>1104480</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>14032662</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>472188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>36150</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14032662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>472188</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>220281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11160072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>62628</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9071208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>62030250</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1256164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>4125489</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8555292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>2199829</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>76398</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>9022026</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4125489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>249636</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6494785</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>8555292</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>249636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
         <v>83750346</v>
       </c>
     </row>
@@ -3318,7 +3390,10 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
         <v>4776606</v>
       </c>
     </row>
@@ -3326,295 +3401,406 @@
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>137061</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>185325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>76398</v>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2199829</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>15765</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>137061</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>284144</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9022026</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>581848</v>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>57084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>1202688</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15765</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>16632</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>284144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>40528416</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>581848</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>90024</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>62030250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>29080</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1202688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>237765</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>436044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>786618</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>5757816</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40528416</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>1107414</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>90024</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>6703950</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>237765</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>2857149</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1107414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>1382832</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>786618</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>93480</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5757816</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>2220765</v>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2857149</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>57084</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6703950</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>6600104</v>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1382832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>33626</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>93480</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>67842900</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6600104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>490048500</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2220765</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>200590</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33626</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>132790</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>490048500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>17406096</v>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>67842900</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>710424</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>200590</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>1256164</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>132790</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>26422</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15336</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>185325</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17406096</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>15336</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26422</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>2104942</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>34398</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>78444</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>710424</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>1461180</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2104942</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>3123120</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>35577</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
         <v>1415856</v>
       </c>
     </row>
@@ -3622,63 +3808,87 @@
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>33448</v>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3123120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>35577</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>33448</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>1501905</v>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>97704</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>16732</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19851012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>11966</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>13264467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>19851012</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>111986</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>97704</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>47775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
         <v>11598069</v>
       </c>
     </row>
@@ -3686,95 +3896,131 @@
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>37180</v>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>609525</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>609525</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18900</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>18900</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7894612</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>47775</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29080</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>13264467</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>16732</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>7894612</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>37180</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>111986</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11966</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>19791619</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1501905</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>752705</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>19791619</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>12281004</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>752705</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>112955152</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6940802</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
         <v>759220</v>
       </c>
     </row>
@@ -3782,95 +4028,131 @@
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>6940802</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12281004</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>216027</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>112955152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>2103216</v>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>44192241</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>3364793</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21267</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>24733995</v>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>216027</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>44192241</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3364793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>15216</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>280151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>21267</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2103216</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>280151</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>24733995</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>417582</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15216</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>53700</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>417582</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
         <v>258318</v>
       </c>
     </row>
@@ -3878,7 +4160,10 @@
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
         <v>8206956</v>
       </c>
     </row>
@@ -3886,279 +4171,384 @@
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>272944</v>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>78444</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>1368</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8987</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>7519104</v>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>89928</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>618</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7697286</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>16771</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>53700</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>3290850</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>7697286</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3290850</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>111989</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>16771</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>9366100</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>618</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>89928</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>272944</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>436044</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>14159178</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>683375</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9366100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>6494785</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1461180</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>4499649</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7519104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>175370</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>111989</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>3637335</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>683375</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>551768</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3637335</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>398240</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>32144442</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="n">
-        <v>309276</v>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="n">
+        <v>175370</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
         <v>230</v>
       </c>
-      <c r="B115" t="n">
-        <v>4400</v>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="n">
+        <v>551768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>232</v>
       </c>
-      <c r="B116" t="n">
-        <v>1036592</v>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4499649</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="n">
-        <v>7560</v>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4400</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="n">
-        <v>640</v>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7560</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>238</v>
       </c>
-      <c r="B119" t="n">
-        <v>32144442</v>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" t="n">
+        <v>309276</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>240</v>
       </c>
-      <c r="B120" t="n">
-        <v>18196</v>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1036592</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>242</v>
       </c>
-      <c r="B121" t="n">
-        <v>19597863</v>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" t="n">
+        <v>398240</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>244</v>
       </c>
-      <c r="B122" t="n">
-        <v>27962</v>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>246</v>
       </c>
-      <c r="B123" t="n">
-        <v>13375152</v>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="n">
+        <v>19597863</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>248</v>
       </c>
-      <c r="B124" t="n">
-        <v>2967440</v>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="n">
+        <v>18196</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>250</v>
       </c>
-      <c r="B125" t="n">
-        <v>6974352</v>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27962</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>252</v>
       </c>
-      <c r="B126" t="n">
-        <v>67900</v>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13375152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="n">
-        <v>8987</v>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="n">
+        <v>67900</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="n">
-        <v>34398</v>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2967440</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>258</v>
       </c>
-      <c r="B129" t="n">
-        <v>14159178</v>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6974352</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="n">
         <v>10841225</v>
       </c>
     </row>
@@ -4166,7 +4556,10 @@
       <c r="A131" t="s">
         <v>262</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="n">
         <v>4540030</v>
       </c>
     </row>

--- a/user-data/poorest-20-percent/poorest-20-percent.xlsx
+++ b/user-data/poorest-20-percent/poorest-20-percent.xlsx
@@ -34,34 +34,82 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
     <t xml:space="preserve">AM</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
     <t xml:space="preserve">AZ</t>
   </si>
   <si>
     <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -70,58 +118,106 @@
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -130,84 +226,18 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">EE</t>
   </si>
   <si>
@@ -226,148 +256,340 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">FM</t>
   </si>
   <si>
     <t xml:space="preserve">Micronesia</t>
   </si>
   <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
@@ -376,298 +598,118 @@
     <t xml:space="preserve">Saint Lucia</t>
   </si>
   <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
     <t xml:space="preserve">SR</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZ</t>
   </si>
   <si>
     <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
   </si>
   <si>
     <t xml:space="preserve">TG</t>
@@ -676,22 +718,28 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">TM</t>
@@ -700,40 +748,16 @@
     <t xml:space="preserve">Turkmenistan</t>
   </si>
   <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">TV</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvalu</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -742,12 +766,6 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">UY</t>
   </si>
   <si>
@@ -760,6 +778,12 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE</t>
   </si>
   <si>
@@ -770,30 +794,6 @@
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1313,7 +1313,7 @@
         <v>2013</v>
       </c>
       <c r="D3" t="n">
-        <v>264316</v>
+        <v>9727060</v>
       </c>
     </row>
     <row r="4">
@@ -1327,7 +1327,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="n">
-        <v>9727060</v>
+        <v>264316</v>
       </c>
     </row>
     <row r="5">
@@ -1355,7 +1355,7 @@
         <v>2013</v>
       </c>
       <c r="D6" t="n">
-        <v>10314</v>
+        <v>49772572</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>2013</v>
       </c>
       <c r="D7" t="n">
-        <v>49772572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1383,7 @@
         <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v>11160072</v>
+        <v>62628</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>220281</v>
+        <v>6798816</v>
       </c>
     </row>
     <row r="10">
@@ -1411,7 +1411,7 @@
         <v>2013</v>
       </c>
       <c r="D10" t="n">
-        <v>9071208</v>
+        <v>36150</v>
       </c>
     </row>
     <row r="11">
@@ -1425,7 +1425,7 @@
         <v>2013</v>
       </c>
       <c r="D11" t="n">
-        <v>6798816</v>
+        <v>1104480</v>
       </c>
     </row>
     <row r="12">
@@ -1439,7 +1439,7 @@
         <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v>1104480</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="13">
@@ -1453,7 +1453,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>14032662</v>
+        <v>472188</v>
       </c>
     </row>
     <row r="14">
@@ -1467,7 +1467,7 @@
         <v>2013</v>
       </c>
       <c r="D14" t="n">
-        <v>36150</v>
+        <v>14032662</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +1481,7 @@
         <v>2013</v>
       </c>
       <c r="D15" t="n">
-        <v>472188</v>
+        <v>220281</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1495,7 @@
         <v>2013</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11160072</v>
       </c>
     </row>
     <row r="17">
@@ -1509,7 +1509,7 @@
         <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>62628</v>
+        <v>9071208</v>
       </c>
     </row>
     <row r="18">
@@ -1523,7 +1523,7 @@
         <v>2013</v>
       </c>
       <c r="D18" t="n">
-        <v>62030250</v>
+        <v>9022026</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
         <v>2013</v>
       </c>
       <c r="D19" t="n">
-        <v>4125489</v>
+        <v>1256164</v>
       </c>
     </row>
     <row r="20">
@@ -1551,7 +1551,7 @@
         <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>2199829</v>
+        <v>8555292</v>
       </c>
     </row>
     <row r="21">
@@ -1565,7 +1565,7 @@
         <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>9022026</v>
+        <v>76398</v>
       </c>
     </row>
     <row r="22">
@@ -1579,7 +1579,7 @@
         <v>2013</v>
       </c>
       <c r="D22" t="n">
-        <v>249636</v>
+        <v>4125489</v>
       </c>
     </row>
     <row r="23">
@@ -1593,7 +1593,7 @@
         <v>2013</v>
       </c>
       <c r="D23" t="n">
-        <v>8555292</v>
+        <v>6494785</v>
       </c>
     </row>
     <row r="24">
@@ -1607,7 +1607,7 @@
         <v>2013</v>
       </c>
       <c r="D24" t="n">
-        <v>83750346</v>
+        <v>249636</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>2013</v>
       </c>
       <c r="D25" t="n">
-        <v>4776606</v>
+        <v>83750346</v>
       </c>
     </row>
     <row r="26">
@@ -1635,7 +1635,7 @@
         <v>2013</v>
       </c>
       <c r="D26" t="n">
-        <v>137061</v>
+        <v>4776606</v>
       </c>
     </row>
     <row r="27">
@@ -1649,7 +1649,7 @@
         <v>2013</v>
       </c>
       <c r="D27" t="n">
-        <v>76398</v>
+        <v>185325</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1663,7 @@
         <v>2013</v>
       </c>
       <c r="D28" t="n">
-        <v>15765</v>
+        <v>2199829</v>
       </c>
     </row>
     <row r="29">
@@ -1677,7 +1677,7 @@
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>284144</v>
+        <v>137061</v>
       </c>
     </row>
     <row r="30">
@@ -1691,7 +1691,7 @@
         <v>2013</v>
       </c>
       <c r="D30" t="n">
-        <v>581848</v>
+        <v>57084</v>
       </c>
     </row>
     <row r="31">
@@ -1705,7 +1705,7 @@
         <v>2013</v>
       </c>
       <c r="D31" t="n">
-        <v>1202688</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="32">
@@ -1719,7 +1719,7 @@
         <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>16632</v>
+        <v>284144</v>
       </c>
     </row>
     <row r="33">
@@ -1733,7 +1733,7 @@
         <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>40528416</v>
+        <v>581848</v>
       </c>
     </row>
     <row r="34">
@@ -1747,7 +1747,7 @@
         <v>2013</v>
       </c>
       <c r="D34" t="n">
-        <v>90024</v>
+        <v>62030250</v>
       </c>
     </row>
     <row r="35">
@@ -1761,7 +1761,7 @@
         <v>2013</v>
       </c>
       <c r="D35" t="n">
-        <v>29080</v>
+        <v>1202688</v>
       </c>
     </row>
     <row r="36">
@@ -1775,7 +1775,7 @@
         <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>237765</v>
+        <v>436044</v>
       </c>
     </row>
     <row r="37">
@@ -1789,7 +1789,7 @@
         <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>786618</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="38">
@@ -1803,7 +1803,7 @@
         <v>2013</v>
       </c>
       <c r="D38" t="n">
-        <v>5757816</v>
+        <v>40528416</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>2013</v>
       </c>
       <c r="D39" t="n">
-        <v>1107414</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="40">
@@ -1831,7 +1831,7 @@
         <v>2013</v>
       </c>
       <c r="D40" t="n">
-        <v>6703950</v>
+        <v>237765</v>
       </c>
     </row>
     <row r="41">
@@ -1845,7 +1845,7 @@
         <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>2857149</v>
+        <v>1107414</v>
       </c>
     </row>
     <row r="42">
@@ -1859,7 +1859,7 @@
         <v>2013</v>
       </c>
       <c r="D42" t="n">
-        <v>1382832</v>
+        <v>786618</v>
       </c>
     </row>
     <row r="43">
@@ -1873,7 +1873,7 @@
         <v>2013</v>
       </c>
       <c r="D43" t="n">
-        <v>93480</v>
+        <v>5757816</v>
       </c>
     </row>
     <row r="44">
@@ -1887,7 +1887,7 @@
         <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>2220765</v>
+        <v>2857149</v>
       </c>
     </row>
     <row r="45">
@@ -1901,7 +1901,7 @@
         <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>57084</v>
+        <v>6703950</v>
       </c>
     </row>
     <row r="46">
@@ -1915,7 +1915,7 @@
         <v>2013</v>
       </c>
       <c r="D46" t="n">
-        <v>6600104</v>
+        <v>1382832</v>
       </c>
     </row>
     <row r="47">
@@ -1929,7 +1929,7 @@
         <v>2013</v>
       </c>
       <c r="D47" t="n">
-        <v>33626</v>
+        <v>93480</v>
       </c>
     </row>
     <row r="48">
@@ -1943,7 +1943,7 @@
         <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v>67842900</v>
+        <v>6600104</v>
       </c>
     </row>
     <row r="49">
@@ -1957,7 +1957,7 @@
         <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>490048500</v>
+        <v>2220765</v>
       </c>
     </row>
     <row r="50">
@@ -1971,7 +1971,7 @@
         <v>2013</v>
       </c>
       <c r="D50" t="n">
-        <v>200590</v>
+        <v>33626</v>
       </c>
     </row>
     <row r="51">
@@ -1985,7 +1985,7 @@
         <v>2013</v>
       </c>
       <c r="D51" t="n">
-        <v>132790</v>
+        <v>490048500</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +1999,7 @@
         <v>2013</v>
       </c>
       <c r="D52" t="n">
-        <v>17406096</v>
+        <v>67842900</v>
       </c>
     </row>
     <row r="53">
@@ -2013,7 +2013,7 @@
         <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>710424</v>
+        <v>200590</v>
       </c>
     </row>
     <row r="54">
@@ -2027,7 +2027,7 @@
         <v>2013</v>
       </c>
       <c r="D54" t="n">
-        <v>1256164</v>
+        <v>132790</v>
       </c>
     </row>
     <row r="55">
@@ -2041,7 +2041,7 @@
         <v>2013</v>
       </c>
       <c r="D55" t="n">
-        <v>26422</v>
+        <v>15336</v>
       </c>
     </row>
     <row r="56">
@@ -2055,7 +2055,7 @@
         <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>185325</v>
+        <v>17406096</v>
       </c>
     </row>
     <row r="57">
@@ -2069,7 +2069,7 @@
         <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>15336</v>
+        <v>26422</v>
       </c>
     </row>
     <row r="58">
@@ -2083,7 +2083,7 @@
         <v>2013</v>
       </c>
       <c r="D58" t="n">
-        <v>2104942</v>
+        <v>34398</v>
       </c>
     </row>
     <row r="59">
@@ -2097,7 +2097,7 @@
         <v>2013</v>
       </c>
       <c r="D59" t="n">
-        <v>78444</v>
+        <v>710424</v>
       </c>
     </row>
     <row r="60">
@@ -2111,7 +2111,7 @@
         <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>1461180</v>
+        <v>2104942</v>
       </c>
     </row>
     <row r="61">
@@ -2125,7 +2125,7 @@
         <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>3123120</v>
+        <v>35577</v>
       </c>
     </row>
     <row r="62">
@@ -2153,7 +2153,7 @@
         <v>2013</v>
       </c>
       <c r="D63" t="n">
-        <v>33448</v>
+        <v>3123120</v>
       </c>
     </row>
     <row r="64">
@@ -2167,7 +2167,7 @@
         <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>35577</v>
+        <v>33448</v>
       </c>
     </row>
     <row r="65">
@@ -2181,7 +2181,7 @@
         <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>1501905</v>
+        <v>97704</v>
       </c>
     </row>
     <row r="66">
@@ -2195,7 +2195,7 @@
         <v>2013</v>
       </c>
       <c r="D66" t="n">
-        <v>16732</v>
+        <v>19851012</v>
       </c>
     </row>
     <row r="67">
@@ -2209,7 +2209,7 @@
         <v>2013</v>
       </c>
       <c r="D67" t="n">
-        <v>11966</v>
+        <v>13264467</v>
       </c>
     </row>
     <row r="68">
@@ -2223,7 +2223,7 @@
         <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>19851012</v>
+        <v>111986</v>
       </c>
     </row>
     <row r="69">
@@ -2237,7 +2237,7 @@
         <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>97704</v>
+        <v>47775</v>
       </c>
     </row>
     <row r="70">
@@ -2265,7 +2265,7 @@
         <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>37180</v>
+        <v>609525</v>
       </c>
     </row>
     <row r="72">
@@ -2279,7 +2279,7 @@
         <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v>609525</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="73">
@@ -2293,7 +2293,7 @@
         <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>18900</v>
+        <v>7894612</v>
       </c>
     </row>
     <row r="74">
@@ -2307,7 +2307,7 @@
         <v>2013</v>
       </c>
       <c r="D74" t="n">
-        <v>47775</v>
+        <v>29080</v>
       </c>
     </row>
     <row r="75">
@@ -2321,7 +2321,7 @@
         <v>2013</v>
       </c>
       <c r="D75" t="n">
-        <v>13264467</v>
+        <v>16732</v>
       </c>
     </row>
     <row r="76">
@@ -2335,7 +2335,7 @@
         <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v>7894612</v>
+        <v>37180</v>
       </c>
     </row>
     <row r="77">
@@ -2349,7 +2349,7 @@
         <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>111986</v>
+        <v>11966</v>
       </c>
     </row>
     <row r="78">
@@ -2363,7 +2363,7 @@
         <v>2013</v>
       </c>
       <c r="D78" t="n">
-        <v>19791619</v>
+        <v>1501905</v>
       </c>
     </row>
     <row r="79">
@@ -2377,7 +2377,7 @@
         <v>2013</v>
       </c>
       <c r="D79" t="n">
-        <v>752705</v>
+        <v>19791619</v>
       </c>
     </row>
     <row r="80">
@@ -2391,7 +2391,7 @@
         <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>12281004</v>
+        <v>752705</v>
       </c>
     </row>
     <row r="81">
@@ -2405,7 +2405,7 @@
         <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>112955152</v>
+        <v>6940802</v>
       </c>
     </row>
     <row r="82">
@@ -2433,7 +2433,7 @@
         <v>2013</v>
       </c>
       <c r="D83" t="n">
-        <v>6940802</v>
+        <v>12281004</v>
       </c>
     </row>
     <row r="84">
@@ -2447,7 +2447,7 @@
         <v>2013</v>
       </c>
       <c r="D84" t="n">
-        <v>216027</v>
+        <v>112955152</v>
       </c>
     </row>
     <row r="85">
@@ -2461,7 +2461,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>2103216</v>
+        <v>44192241</v>
       </c>
     </row>
     <row r="86">
@@ -2475,7 +2475,7 @@
         <v>2013</v>
       </c>
       <c r="D86" t="n">
-        <v>3364793</v>
+        <v>21267</v>
       </c>
     </row>
     <row r="87">
@@ -2489,7 +2489,7 @@
         <v>2013</v>
       </c>
       <c r="D87" t="n">
-        <v>24733995</v>
+        <v>216027</v>
       </c>
     </row>
     <row r="88">
@@ -2503,7 +2503,7 @@
         <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v>44192241</v>
+        <v>3364793</v>
       </c>
     </row>
     <row r="89">
@@ -2517,7 +2517,7 @@
         <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>15216</v>
+        <v>280151</v>
       </c>
     </row>
     <row r="90">
@@ -2531,7 +2531,7 @@
         <v>2013</v>
       </c>
       <c r="D90" t="n">
-        <v>21267</v>
+        <v>2103216</v>
       </c>
     </row>
     <row r="91">
@@ -2545,7 +2545,7 @@
         <v>2013</v>
       </c>
       <c r="D91" t="n">
-        <v>280151</v>
+        <v>24733995</v>
       </c>
     </row>
     <row r="92">
@@ -2559,7 +2559,7 @@
         <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>417582</v>
+        <v>15216</v>
       </c>
     </row>
     <row r="93">
@@ -2573,7 +2573,7 @@
         <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>53700</v>
+        <v>417582</v>
       </c>
     </row>
     <row r="94">
@@ -2615,7 +2615,7 @@
         <v>2013</v>
       </c>
       <c r="D96" t="n">
-        <v>272944</v>
+        <v>78444</v>
       </c>
     </row>
     <row r="97">
@@ -2629,7 +2629,7 @@
         <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>1368</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="98">
@@ -2643,7 +2643,7 @@
         <v>2013</v>
       </c>
       <c r="D98" t="n">
-        <v>7519104</v>
+        <v>89928</v>
       </c>
     </row>
     <row r="99">
@@ -2657,7 +2657,7 @@
         <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>618</v>
+        <v>7697286</v>
       </c>
     </row>
     <row r="100">
@@ -2671,7 +2671,7 @@
         <v>2013</v>
       </c>
       <c r="D100" t="n">
-        <v>16771</v>
+        <v>53700</v>
       </c>
     </row>
     <row r="101">
@@ -2685,7 +2685,7 @@
         <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>3290850</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="102">
@@ -2699,7 +2699,7 @@
         <v>2013</v>
       </c>
       <c r="D102" t="n">
-        <v>7697286</v>
+        <v>3290850</v>
       </c>
     </row>
     <row r="103">
@@ -2713,7 +2713,7 @@
         <v>2013</v>
       </c>
       <c r="D103" t="n">
-        <v>111989</v>
+        <v>16771</v>
       </c>
     </row>
     <row r="104">
@@ -2727,7 +2727,7 @@
         <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v>9366100</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105">
@@ -2741,7 +2741,7 @@
         <v>2013</v>
       </c>
       <c r="D105" t="n">
-        <v>89928</v>
+        <v>272944</v>
       </c>
     </row>
     <row r="106">
@@ -2755,7 +2755,7 @@
         <v>2013</v>
       </c>
       <c r="D106" t="n">
-        <v>436044</v>
+        <v>14159178</v>
       </c>
     </row>
     <row r="107">
@@ -2769,7 +2769,7 @@
         <v>2013</v>
       </c>
       <c r="D107" t="n">
-        <v>683375</v>
+        <v>9366100</v>
       </c>
     </row>
     <row r="108">
@@ -2783,7 +2783,7 @@
         <v>2013</v>
       </c>
       <c r="D108" t="n">
-        <v>6494785</v>
+        <v>1461180</v>
       </c>
     </row>
     <row r="109">
@@ -2797,7 +2797,7 @@
         <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>4499649</v>
+        <v>7519104</v>
       </c>
     </row>
     <row r="110">
@@ -2811,7 +2811,7 @@
         <v>2013</v>
       </c>
       <c r="D110" t="n">
-        <v>175370</v>
+        <v>111989</v>
       </c>
     </row>
     <row r="111">
@@ -2825,7 +2825,7 @@
         <v>2013</v>
       </c>
       <c r="D111" t="n">
-        <v>3637335</v>
+        <v>683375</v>
       </c>
     </row>
     <row r="112">
@@ -2839,7 +2839,7 @@
         <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v>551768</v>
+        <v>3637335</v>
       </c>
     </row>
     <row r="113">
@@ -2853,7 +2853,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>398240</v>
+        <v>32144442</v>
       </c>
     </row>
     <row r="114">
@@ -2867,7 +2867,7 @@
         <v>2013</v>
       </c>
       <c r="D114" t="n">
-        <v>309276</v>
+        <v>175370</v>
       </c>
     </row>
     <row r="115">
@@ -2881,7 +2881,7 @@
         <v>2013</v>
       </c>
       <c r="D115" t="n">
-        <v>4400</v>
+        <v>551768</v>
       </c>
     </row>
     <row r="116">
@@ -2895,7 +2895,7 @@
         <v>2013</v>
       </c>
       <c r="D116" t="n">
-        <v>1036592</v>
+        <v>4499649</v>
       </c>
     </row>
     <row r="117">
@@ -2909,7 +2909,7 @@
         <v>2013</v>
       </c>
       <c r="D117" t="n">
-        <v>7560</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="118">
@@ -2923,7 +2923,7 @@
         <v>2013</v>
       </c>
       <c r="D118" t="n">
-        <v>640</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="119">
@@ -2937,7 +2937,7 @@
         <v>2013</v>
       </c>
       <c r="D119" t="n">
-        <v>32144442</v>
+        <v>309276</v>
       </c>
     </row>
     <row r="120">
@@ -2951,7 +2951,7 @@
         <v>2013</v>
       </c>
       <c r="D120" t="n">
-        <v>18196</v>
+        <v>1036592</v>
       </c>
     </row>
     <row r="121">
@@ -2965,7 +2965,7 @@
         <v>2013</v>
       </c>
       <c r="D121" t="n">
-        <v>19597863</v>
+        <v>398240</v>
       </c>
     </row>
     <row r="122">
@@ -2979,7 +2979,7 @@
         <v>2013</v>
       </c>
       <c r="D122" t="n">
-        <v>27962</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123">
@@ -2993,7 +2993,7 @@
         <v>2013</v>
       </c>
       <c r="D123" t="n">
-        <v>13375152</v>
+        <v>19597863</v>
       </c>
     </row>
     <row r="124">
@@ -3007,7 +3007,7 @@
         <v>2013</v>
       </c>
       <c r="D124" t="n">
-        <v>2967440</v>
+        <v>18196</v>
       </c>
     </row>
     <row r="125">
@@ -3021,7 +3021,7 @@
         <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>6974352</v>
+        <v>27962</v>
       </c>
     </row>
     <row r="126">
@@ -3035,7 +3035,7 @@
         <v>2013</v>
       </c>
       <c r="D126" t="n">
-        <v>67900</v>
+        <v>13375152</v>
       </c>
     </row>
     <row r="127">
@@ -3049,7 +3049,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>8987</v>
+        <v>67900</v>
       </c>
     </row>
     <row r="128">
@@ -3063,7 +3063,7 @@
         <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>34398</v>
+        <v>2967440</v>
       </c>
     </row>
     <row r="129">
@@ -3077,7 +3077,7 @@
         <v>2013</v>
       </c>
       <c r="D129" t="n">
-        <v>14159178</v>
+        <v>6974352</v>
       </c>
     </row>
     <row r="130">
@@ -3127,6 +3127,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3134,7 +3137,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>92510</v>
       </c>
     </row>
@@ -3142,23 +3148,32 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>264316</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9727060</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>9727060</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>264316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>80070</v>
       </c>
     </row>
@@ -3166,455 +3181,626 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>10314</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49772572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>49772572</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>11160072</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>220281</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6798816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>9071208</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>6798816</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1104480</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>1104480</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>14032662</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>472188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>36150</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14032662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>472188</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>220281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11160072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>62628</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9071208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>62030250</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9022026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>4125489</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1256164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>2199829</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8555292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>9022026</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>76398</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>249636</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4125489</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>8555292</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6494785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>83750346</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>249636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>4776606</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>83750346</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>137061</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4776606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>76398</v>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>185325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>15765</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2199829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>284144</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>137061</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>581848</v>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>57084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>1202688</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15765</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>16632</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>284144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>40528416</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>581848</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>90024</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>62030250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>29080</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1202688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>237765</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>436044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>786618</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>5757816</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40528416</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>1107414</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>90024</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>6703950</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>237765</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>2857149</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1107414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>1382832</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>786618</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>93480</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5757816</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>2220765</v>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2857149</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>57084</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6703950</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>6600104</v>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1382832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>33626</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>93480</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>67842900</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6600104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>490048500</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2220765</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>200590</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33626</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>132790</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>490048500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>17406096</v>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>67842900</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>710424</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>200590</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>1256164</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>132790</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>26422</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15336</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>185325</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17406096</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>15336</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26422</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>2104942</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>34398</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>78444</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>710424</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>1461180</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2104942</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>3123120</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>35577</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
         <v>1415856</v>
       </c>
     </row>
@@ -3622,63 +3808,87 @@
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>33448</v>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3123120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>35577</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>33448</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>1501905</v>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>97704</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>16732</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19851012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>11966</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>13264467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>19851012</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>111986</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>97704</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>47775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
         <v>11598069</v>
       </c>
     </row>
@@ -3686,95 +3896,131 @@
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>37180</v>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>609525</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>609525</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18900</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>18900</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7894612</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>47775</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29080</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>13264467</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>16732</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>7894612</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>37180</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>111986</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11966</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>19791619</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1501905</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>752705</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>19791619</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>12281004</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>752705</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>112955152</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6940802</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
         <v>759220</v>
       </c>
     </row>
@@ -3782,95 +4028,131 @@
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>6940802</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12281004</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>216027</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>112955152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>2103216</v>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>44192241</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>3364793</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21267</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>24733995</v>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>216027</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>44192241</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3364793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>15216</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>280151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>21267</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2103216</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>280151</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>24733995</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>417582</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15216</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>53700</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>417582</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
         <v>258318</v>
       </c>
     </row>
@@ -3878,7 +4160,10 @@
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
         <v>8206956</v>
       </c>
     </row>
@@ -3886,279 +4171,384 @@
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>272944</v>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>78444</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>1368</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8987</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>7519104</v>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>89928</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>618</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7697286</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>16771</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>53700</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>3290850</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>7697286</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3290850</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>111989</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>16771</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>9366100</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>618</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>89928</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>272944</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>436044</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>14159178</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>683375</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9366100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>6494785</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1461180</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>4499649</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7519104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>175370</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>111989</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>3637335</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>683375</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>551768</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3637335</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>398240</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>32144442</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="n">
-        <v>309276</v>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="n">
+        <v>175370</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
         <v>230</v>
       </c>
-      <c r="B115" t="n">
-        <v>4400</v>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="n">
+        <v>551768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>232</v>
       </c>
-      <c r="B116" t="n">
-        <v>1036592</v>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4499649</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="n">
-        <v>7560</v>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4400</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="n">
-        <v>640</v>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7560</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>238</v>
       </c>
-      <c r="B119" t="n">
-        <v>32144442</v>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" t="n">
+        <v>309276</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>240</v>
       </c>
-      <c r="B120" t="n">
-        <v>18196</v>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1036592</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>242</v>
       </c>
-      <c r="B121" t="n">
-        <v>19597863</v>
+      <c r="B121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" t="n">
+        <v>398240</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>244</v>
       </c>
-      <c r="B122" t="n">
-        <v>27962</v>
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>246</v>
       </c>
-      <c r="B123" t="n">
-        <v>13375152</v>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="n">
+        <v>19597863</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>248</v>
       </c>
-      <c r="B124" t="n">
-        <v>2967440</v>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="n">
+        <v>18196</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>250</v>
       </c>
-      <c r="B125" t="n">
-        <v>6974352</v>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27962</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>252</v>
       </c>
-      <c r="B126" t="n">
-        <v>67900</v>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13375152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="n">
-        <v>8987</v>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="n">
+        <v>67900</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="n">
-        <v>34398</v>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2967440</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>258</v>
       </c>
-      <c r="B129" t="n">
-        <v>14159178</v>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6974352</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="n">
         <v>10841225</v>
       </c>
     </row>
@@ -4166,7 +4556,10 @@
       <c r="A131" t="s">
         <v>262</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="n">
         <v>4540030</v>
       </c>
     </row>

--- a/user-data/poorest-20-percent/poorest-20-percent.xlsx
+++ b/user-data/poorest-20-percent/poorest-20-percent.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+  <si>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -124,76 +124,76 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">HR</t>
@@ -637,7 +637,7 @@
     <t xml:space="preserve">SK</t>
   </si>
   <si>
-    <t xml:space="preserve">Slovak Republic</t>
+    <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -811,16 +811,28 @@
     <t xml:space="preserve">2013</t>
   </si>
   <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: poorest-20-percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Number of people in each country that are part of the poorest 20% of people worldwide.</t>
+    <t xml:space="preserve">Description: Number of people in each country that are part of the poorest 20% of people worldwide. Data is for 2013.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initiatives based on World Bank PovcalNet. See our factsheet: http://devinit.org/wp-content/uploads/2015/03/Factsheet-Ending-poverty-by-focusing-on-the-poorest-20-percent-of-people-globally.pdf.</t>
+    <t xml:space="preserve">Source: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -829,25 +841,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1181,83 +1187,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1304,1807 +1309,5441 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>9727060</v>
+        <v>92510</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>264316</v>
+        <v>92510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>80070</v>
+        <v>9727060</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>49772572</v>
+        <v>9727060</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9727060</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v>62628</v>
+        <v>264316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>6798816</v>
+        <v>264316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>36150</v>
+        <v>264316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>2013</v>
       </c>
       <c r="D11" t="n">
-        <v>1104480</v>
+        <v>80070</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>10314</v>
+        <v>80070</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D13" t="n">
-        <v>472188</v>
+        <v>80070</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>2013</v>
       </c>
       <c r="D14" t="n">
-        <v>14032662</v>
+        <v>49772572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>220281</v>
+        <v>49772572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>11160072</v>
+        <v>49772572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>2013</v>
       </c>
-      <c r="D17" t="n">
-        <v>9071208</v>
-      </c>
+      <c r="D17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9022026</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1256164</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
         <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>8555292</v>
+        <v>62628</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>76398</v>
+        <v>62628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>4125489</v>
+        <v>62628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>2013</v>
       </c>
       <c r="D23" t="n">
-        <v>6494785</v>
+        <v>6798816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>249636</v>
+        <v>6798816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>83750346</v>
+        <v>6798816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
         <v>2013</v>
       </c>
       <c r="D26" t="n">
-        <v>4776606</v>
+        <v>36150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>185325</v>
+        <v>36150</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>2199829</v>
+        <v>36150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>137061</v>
+        <v>1104480</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>57084</v>
+        <v>1104480</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>15765</v>
+        <v>1104480</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
         <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>284144</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>581848</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>62030250</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
         <v>2013</v>
       </c>
       <c r="D35" t="n">
-        <v>1202688</v>
+        <v>472188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>436044</v>
+        <v>472188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>16632</v>
+        <v>472188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
         <v>2013</v>
       </c>
       <c r="D38" t="n">
-        <v>40528416</v>
+        <v>14032662</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>90024</v>
+        <v>14032662</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C40" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>237765</v>
+        <v>14032662</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C41" t="n">
         <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>1107414</v>
+        <v>220281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C42" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>786618</v>
+        <v>220281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C43" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>5757816</v>
+        <v>220281</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C44" t="n">
         <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>2857149</v>
+        <v>11160072</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C45" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>6703950</v>
+        <v>11160072</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C46" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>1382832</v>
+        <v>11160072</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C47" t="n">
         <v>2013</v>
       </c>
       <c r="D47" t="n">
-        <v>93480</v>
+        <v>9071208</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C48" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>6600104</v>
+        <v>9071208</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C49" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>2220765</v>
+        <v>9071208</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C50" t="n">
         <v>2013</v>
       </c>
       <c r="D50" t="n">
-        <v>33626</v>
+        <v>1256164</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>490048500</v>
+        <v>1256164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>67842900</v>
+        <v>1256164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C53" t="n">
         <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>200590</v>
+        <v>8555292</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C54" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>132790</v>
+        <v>8555292</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>15336</v>
+        <v>8555292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C56" t="n">
         <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>17406096</v>
+        <v>76398</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>26422</v>
+        <v>76398</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C58" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>34398</v>
+        <v>76398</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
         <v>2013</v>
       </c>
       <c r="D59" t="n">
-        <v>710424</v>
+        <v>4125489</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C60" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>2104942</v>
+        <v>4125489</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C61" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>35577</v>
+        <v>4125489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="C62" t="n">
         <v>2013</v>
       </c>
       <c r="D62" t="n">
-        <v>1415856</v>
+        <v>6494785</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="C63" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>3123120</v>
+        <v>6494785</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C64" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>33448</v>
+        <v>6494785</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C65" t="n">
         <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>97704</v>
+        <v>249636</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="C66" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>19851012</v>
+        <v>249636</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="C67" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>13264467</v>
+        <v>249636</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="C68" t="n">
         <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>111986</v>
+        <v>83750346</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C69" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>47775</v>
+        <v>83750346</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C70" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>11598069</v>
+        <v>83750346</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C71" t="n">
         <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>609525</v>
+        <v>4776606</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C72" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>18900</v>
+        <v>4776606</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="C73" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>7894612</v>
+        <v>4776606</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="C74" t="n">
         <v>2013</v>
       </c>
       <c r="D74" t="n">
-        <v>29080</v>
+        <v>185325</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C75" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>16732</v>
+        <v>185325</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C76" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>37180</v>
+        <v>185325</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C77" t="n">
         <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>11966</v>
+        <v>2199829</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C78" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>1501905</v>
+        <v>2199829</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="C79" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>19791619</v>
+        <v>2199829</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C80" t="n">
         <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>752705</v>
+        <v>137061</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="C81" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>6940802</v>
+        <v>137061</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C82" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>759220</v>
+        <v>137061</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C83" t="n">
         <v>2013</v>
       </c>
       <c r="D83" t="n">
-        <v>12281004</v>
+        <v>9022026</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="C84" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>112955152</v>
+        <v>9022026</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C85" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D85" t="n">
-        <v>44192241</v>
+        <v>9022026</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="C86" t="n">
         <v>2013</v>
       </c>
       <c r="D86" t="n">
-        <v>21267</v>
+        <v>57084</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="C87" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>216027</v>
+        <v>57084</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="C88" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>3364793</v>
+        <v>57084</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="C89" t="n">
         <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>280151</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="C90" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>2103216</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="C91" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>24733995</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="C92" t="n">
         <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>15216</v>
+        <v>284144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="C93" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>417582</v>
+        <v>284144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="C94" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>258318</v>
+        <v>284144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C95" t="n">
         <v>2013</v>
       </c>
       <c r="D95" t="n">
-        <v>8206956</v>
+        <v>581848</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="C96" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>78444</v>
+        <v>581848</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="C97" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>8987</v>
+        <v>581848</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="C98" t="n">
         <v>2013</v>
       </c>
       <c r="D98" t="n">
-        <v>89928</v>
+        <v>62030250</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="C99" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>7697286</v>
+        <v>62030250</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="C100" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>53700</v>
+        <v>62030250</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="C101" t="n">
         <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>1368</v>
+        <v>1202688</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="C102" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>3290850</v>
+        <v>1202688</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="C103" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>16771</v>
+        <v>1202688</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="C104" t="n">
         <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v>618</v>
+        <v>436044</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="C105" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>272944</v>
+        <v>436044</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="C106" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>14159178</v>
+        <v>436044</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="C107" t="n">
         <v>2013</v>
       </c>
       <c r="D107" t="n">
-        <v>9366100</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="C108" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>1461180</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="C109" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>7519104</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="C110" t="n">
         <v>2013</v>
       </c>
       <c r="D110" t="n">
-        <v>111989</v>
+        <v>40528416</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="C111" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>683375</v>
+        <v>40528416</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="C112" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>3637335</v>
+        <v>40528416</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="C113" t="n">
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>32144442</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="C114" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D114" t="n">
-        <v>175370</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="C115" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D115" t="n">
-        <v>551768</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="C116" t="n">
         <v>2013</v>
       </c>
       <c r="D116" t="n">
-        <v>4499649</v>
+        <v>237765</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="C117" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D117" t="n">
-        <v>4400</v>
+        <v>237765</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="C118" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>7560</v>
+        <v>237765</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="C119" t="n">
         <v>2013</v>
       </c>
       <c r="D119" t="n">
-        <v>309276</v>
+        <v>1107414</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="C120" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D120" t="n">
-        <v>1036592</v>
+        <v>1107414</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="C121" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>398240</v>
+        <v>1107414</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c r="C122" t="n">
         <v>2013</v>
       </c>
       <c r="D122" t="n">
-        <v>640</v>
+        <v>786618</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="C123" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D123" t="n">
-        <v>19597863</v>
+        <v>786618</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="C124" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>18196</v>
+        <v>786618</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="C125" t="n">
         <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>27962</v>
+        <v>5757816</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="C126" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D126" t="n">
-        <v>13375152</v>
+        <v>5757816</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="C127" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>67900</v>
+        <v>5757816</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="C128" t="n">
         <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>2967440</v>
+        <v>2857149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="C129" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D129" t="n">
-        <v>6974352</v>
+        <v>2857149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="C130" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>10841225</v>
+        <v>2857149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>90</v>
+      </c>
+      <c r="B131" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6703950</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6703950</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6703950</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1382832</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1382832</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1382832</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D137" t="n">
+        <v>93480</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D138" t="n">
+        <v>93480</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D139" t="n">
+        <v>93480</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6600104</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6600104</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6600104</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" t="s">
+        <v>99</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2220765</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>98</v>
+      </c>
+      <c r="B144" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2220765</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>98</v>
+      </c>
+      <c r="B145" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2220765</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" t="s">
+        <v>101</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D146" t="n">
+        <v>33626</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s">
+        <v>101</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D147" t="n">
+        <v>33626</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D148" t="n">
+        <v>33626</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D149" t="n">
+        <v>490048500</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D150" t="n">
+        <v>490048500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>102</v>
+      </c>
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D151" t="n">
+        <v>490048500</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>104</v>
+      </c>
+      <c r="B152" t="s">
+        <v>105</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67842900</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>104</v>
+      </c>
+      <c r="B153" t="s">
+        <v>105</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D153" t="n">
+        <v>67842900</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>104</v>
+      </c>
+      <c r="B154" t="s">
+        <v>105</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67842900</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D155" t="n">
+        <v>200590</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>106</v>
+      </c>
+      <c r="B156" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D156" t="n">
+        <v>200590</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>106</v>
+      </c>
+      <c r="B157" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D157" t="n">
+        <v>200590</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>108</v>
+      </c>
+      <c r="B158" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D158" t="n">
+        <v>132790</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" t="s">
+        <v>109</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D159" t="n">
+        <v>132790</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>108</v>
+      </c>
+      <c r="B160" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D160" t="n">
+        <v>132790</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>110</v>
+      </c>
+      <c r="B161" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15336</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>110</v>
+      </c>
+      <c r="B162" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15336</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15336</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D164" t="n">
+        <v>17406096</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D165" t="n">
+        <v>17406096</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D166" t="n">
+        <v>17406096</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D167" t="n">
+        <v>26422</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>114</v>
+      </c>
+      <c r="B168" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D168" t="n">
+        <v>26422</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>114</v>
+      </c>
+      <c r="B169" t="s">
+        <v>115</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D169" t="n">
+        <v>26422</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D170" t="n">
+        <v>34398</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" t="s">
+        <v>117</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D171" t="n">
+        <v>34398</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D172" t="n">
+        <v>34398</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>118</v>
+      </c>
+      <c r="B173" t="s">
+        <v>119</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D173" t="n">
+        <v>710424</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D174" t="n">
+        <v>710424</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" t="s">
+        <v>119</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D175" t="n">
+        <v>710424</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>120</v>
+      </c>
+      <c r="B176" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2104942</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>120</v>
+      </c>
+      <c r="B177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2104942</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>120</v>
+      </c>
+      <c r="B178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2104942</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>122</v>
+      </c>
+      <c r="B179" t="s">
+        <v>123</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D179" t="n">
+        <v>35577</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180" t="s">
+        <v>123</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D180" t="n">
+        <v>35577</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>122</v>
+      </c>
+      <c r="B181" t="s">
+        <v>123</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D181" t="n">
+        <v>35577</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>124</v>
+      </c>
+      <c r="B182" t="s">
+        <v>125</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1415856</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>124</v>
+      </c>
+      <c r="B183" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1415856</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>124</v>
+      </c>
+      <c r="B184" t="s">
+        <v>125</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1415856</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185" t="s">
+        <v>127</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3123120</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>126</v>
+      </c>
+      <c r="B186" t="s">
+        <v>127</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3123120</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>126</v>
+      </c>
+      <c r="B187" t="s">
+        <v>127</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3123120</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>128</v>
+      </c>
+      <c r="B188" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D188" t="n">
+        <v>33448</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>128</v>
+      </c>
+      <c r="B189" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D189" t="n">
+        <v>33448</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>128</v>
+      </c>
+      <c r="B190" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D190" t="n">
+        <v>33448</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>130</v>
+      </c>
+      <c r="B191" t="s">
+        <v>131</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D191" t="n">
+        <v>97704</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>130</v>
+      </c>
+      <c r="B192" t="s">
+        <v>131</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D192" t="n">
+        <v>97704</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>130</v>
+      </c>
+      <c r="B193" t="s">
+        <v>131</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D193" t="n">
+        <v>97704</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194" t="s">
+        <v>133</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D194" t="n">
+        <v>19851012</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>132</v>
+      </c>
+      <c r="B195" t="s">
+        <v>133</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D195" t="n">
+        <v>19851012</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196" t="s">
+        <v>133</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D196" t="n">
+        <v>19851012</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D197" t="n">
+        <v>13264467</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>134</v>
+      </c>
+      <c r="B198" t="s">
+        <v>135</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D198" t="n">
+        <v>13264467</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>134</v>
+      </c>
+      <c r="B199" t="s">
+        <v>135</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D199" t="n">
+        <v>13264467</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" t="s">
+        <v>137</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D200" t="n">
+        <v>111986</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" t="s">
+        <v>137</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D201" t="n">
+        <v>111986</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>136</v>
+      </c>
+      <c r="B202" t="s">
+        <v>137</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D202" t="n">
+        <v>111986</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>138</v>
+      </c>
+      <c r="B203" t="s">
+        <v>139</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D203" t="n">
+        <v>47775</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>138</v>
+      </c>
+      <c r="B204" t="s">
+        <v>139</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D204" t="n">
+        <v>47775</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>138</v>
+      </c>
+      <c r="B205" t="s">
+        <v>139</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D205" t="n">
+        <v>47775</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>140</v>
+      </c>
+      <c r="B206" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11598069</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>140</v>
+      </c>
+      <c r="B207" t="s">
+        <v>141</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11598069</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>140</v>
+      </c>
+      <c r="B208" t="s">
+        <v>141</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11598069</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>142</v>
+      </c>
+      <c r="B209" t="s">
+        <v>143</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D209" t="n">
+        <v>609525</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>142</v>
+      </c>
+      <c r="B210" t="s">
+        <v>143</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D210" t="n">
+        <v>609525</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>142</v>
+      </c>
+      <c r="B211" t="s">
+        <v>143</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D211" t="n">
+        <v>609525</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>144</v>
+      </c>
+      <c r="B212" t="s">
+        <v>145</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D212" t="n">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>144</v>
+      </c>
+      <c r="B213" t="s">
+        <v>145</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D213" t="n">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>144</v>
+      </c>
+      <c r="B214" t="s">
+        <v>145</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D214" t="n">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>146</v>
+      </c>
+      <c r="B215" t="s">
+        <v>147</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D215" t="n">
+        <v>7894612</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>146</v>
+      </c>
+      <c r="B216" t="s">
+        <v>147</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D216" t="n">
+        <v>7894612</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>146</v>
+      </c>
+      <c r="B217" t="s">
+        <v>147</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D217" t="n">
+        <v>7894612</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>148</v>
+      </c>
+      <c r="B218" t="s">
+        <v>149</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D218" t="n">
+        <v>29080</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>148</v>
+      </c>
+      <c r="B219" t="s">
+        <v>149</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D219" t="n">
+        <v>29080</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>148</v>
+      </c>
+      <c r="B220" t="s">
+        <v>149</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D220" t="n">
+        <v>29080</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221" t="s">
+        <v>151</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D221" t="n">
+        <v>16732</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>150</v>
+      </c>
+      <c r="B222" t="s">
+        <v>151</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D222" t="n">
+        <v>16732</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>150</v>
+      </c>
+      <c r="B223" t="s">
+        <v>151</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16732</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>152</v>
+      </c>
+      <c r="B224" t="s">
+        <v>153</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D224" t="n">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>152</v>
+      </c>
+      <c r="B225" t="s">
+        <v>153</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D225" t="n">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>152</v>
+      </c>
+      <c r="B226" t="s">
+        <v>153</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D226" t="n">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>154</v>
+      </c>
+      <c r="B227" t="s">
+        <v>155</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D227" t="n">
+        <v>11966</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>154</v>
+      </c>
+      <c r="B228" t="s">
+        <v>155</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11966</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229" t="s">
+        <v>155</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D229" t="n">
+        <v>11966</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>156</v>
+      </c>
+      <c r="B230" t="s">
+        <v>157</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1501905</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" t="s">
+        <v>157</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1501905</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>156</v>
+      </c>
+      <c r="B232" t="s">
+        <v>157</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1501905</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>158</v>
+      </c>
+      <c r="B233" t="s">
+        <v>159</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D233" t="n">
+        <v>19791619</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>158</v>
+      </c>
+      <c r="B234" t="s">
+        <v>159</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D234" t="n">
+        <v>19791619</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>158</v>
+      </c>
+      <c r="B235" t="s">
+        <v>159</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D235" t="n">
+        <v>19791619</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>160</v>
+      </c>
+      <c r="B236" t="s">
+        <v>161</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D236" t="n">
+        <v>752705</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>160</v>
+      </c>
+      <c r="B237" t="s">
+        <v>161</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D237" t="n">
+        <v>752705</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>160</v>
+      </c>
+      <c r="B238" t="s">
+        <v>161</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D238" t="n">
+        <v>752705</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>162</v>
+      </c>
+      <c r="B239" t="s">
+        <v>163</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D239" t="n">
+        <v>6940802</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" t="s">
+        <v>163</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D240" t="n">
+        <v>6940802</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" t="s">
+        <v>163</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D241" t="n">
+        <v>6940802</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>164</v>
+      </c>
+      <c r="B242" t="s">
+        <v>165</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D242" t="n">
+        <v>759220</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>164</v>
+      </c>
+      <c r="B243" t="s">
+        <v>165</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D243" t="n">
+        <v>759220</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>164</v>
+      </c>
+      <c r="B244" t="s">
+        <v>165</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D244" t="n">
+        <v>759220</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>166</v>
+      </c>
+      <c r="B245" t="s">
+        <v>167</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12281004</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>166</v>
+      </c>
+      <c r="B246" t="s">
+        <v>167</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12281004</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>166</v>
+      </c>
+      <c r="B247" t="s">
+        <v>167</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12281004</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>168</v>
+      </c>
+      <c r="B248" t="s">
+        <v>169</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D248" t="n">
+        <v>112955152</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>168</v>
+      </c>
+      <c r="B249" t="s">
+        <v>169</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D249" t="n">
+        <v>112955152</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>168</v>
+      </c>
+      <c r="B250" t="s">
+        <v>169</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D250" t="n">
+        <v>112955152</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>170</v>
+      </c>
+      <c r="B251" t="s">
+        <v>171</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D251" t="n">
+        <v>44192241</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>170</v>
+      </c>
+      <c r="B252" t="s">
+        <v>171</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D252" t="n">
+        <v>44192241</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>170</v>
+      </c>
+      <c r="B253" t="s">
+        <v>171</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D253" t="n">
+        <v>44192241</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>172</v>
+      </c>
+      <c r="B254" t="s">
+        <v>173</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D254" t="n">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>172</v>
+      </c>
+      <c r="B255" t="s">
+        <v>173</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D255" t="n">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>172</v>
+      </c>
+      <c r="B256" t="s">
+        <v>173</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D256" t="n">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>174</v>
+      </c>
+      <c r="B257" t="s">
+        <v>175</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D257" t="n">
+        <v>216027</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>174</v>
+      </c>
+      <c r="B258" t="s">
+        <v>175</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D258" t="n">
+        <v>216027</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>174</v>
+      </c>
+      <c r="B259" t="s">
+        <v>175</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D259" t="n">
+        <v>216027</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>176</v>
+      </c>
+      <c r="B260" t="s">
+        <v>177</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D260" t="n">
+        <v>3364793</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>176</v>
+      </c>
+      <c r="B261" t="s">
+        <v>177</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3364793</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>176</v>
+      </c>
+      <c r="B262" t="s">
+        <v>177</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3364793</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>178</v>
+      </c>
+      <c r="B263" t="s">
+        <v>179</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D263" t="n">
+        <v>280151</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>178</v>
+      </c>
+      <c r="B264" t="s">
+        <v>179</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D264" t="n">
+        <v>280151</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>178</v>
+      </c>
+      <c r="B265" t="s">
+        <v>179</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D265" t="n">
+        <v>280151</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>180</v>
+      </c>
+      <c r="B266" t="s">
+        <v>181</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2103216</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>180</v>
+      </c>
+      <c r="B267" t="s">
+        <v>181</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2103216</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>180</v>
+      </c>
+      <c r="B268" t="s">
+        <v>181</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2103216</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>182</v>
+      </c>
+      <c r="B269" t="s">
+        <v>183</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D269" t="n">
+        <v>24733995</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>182</v>
+      </c>
+      <c r="B270" t="s">
+        <v>183</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D270" t="n">
+        <v>24733995</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>182</v>
+      </c>
+      <c r="B271" t="s">
+        <v>183</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D271" t="n">
+        <v>24733995</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>184</v>
+      </c>
+      <c r="B272" t="s">
+        <v>185</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D272" t="n">
+        <v>15216</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>184</v>
+      </c>
+      <c r="B273" t="s">
+        <v>185</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D273" t="n">
+        <v>15216</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>184</v>
+      </c>
+      <c r="B274" t="s">
+        <v>185</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D274" t="n">
+        <v>15216</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>186</v>
+      </c>
+      <c r="B275" t="s">
+        <v>187</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D275" t="n">
+        <v>417582</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>186</v>
+      </c>
+      <c r="B276" t="s">
+        <v>187</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D276" t="n">
+        <v>417582</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>186</v>
+      </c>
+      <c r="B277" t="s">
+        <v>187</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D277" t="n">
+        <v>417582</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>188</v>
+      </c>
+      <c r="B278" t="s">
+        <v>189</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D278" t="n">
+        <v>258318</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>188</v>
+      </c>
+      <c r="B279" t="s">
+        <v>189</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D279" t="n">
+        <v>258318</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>188</v>
+      </c>
+      <c r="B280" t="s">
+        <v>189</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D280" t="n">
+        <v>258318</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>190</v>
+      </c>
+      <c r="B281" t="s">
+        <v>191</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D281" t="n">
+        <v>8206956</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>190</v>
+      </c>
+      <c r="B282" t="s">
+        <v>191</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D282" t="n">
+        <v>8206956</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>190</v>
+      </c>
+      <c r="B283" t="s">
+        <v>191</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D283" t="n">
+        <v>8206956</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>192</v>
+      </c>
+      <c r="B284" t="s">
+        <v>193</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D284" t="n">
+        <v>78444</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>192</v>
+      </c>
+      <c r="B285" t="s">
+        <v>193</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D285" t="n">
+        <v>78444</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>192</v>
+      </c>
+      <c r="B286" t="s">
+        <v>193</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D286" t="n">
+        <v>78444</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>194</v>
+      </c>
+      <c r="B287" t="s">
+        <v>195</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D287" t="n">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>194</v>
+      </c>
+      <c r="B288" t="s">
+        <v>195</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D288" t="n">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>194</v>
+      </c>
+      <c r="B289" t="s">
+        <v>195</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D289" t="n">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>196</v>
+      </c>
+      <c r="B290" t="s">
+        <v>197</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D290" t="n">
+        <v>89928</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>196</v>
+      </c>
+      <c r="B291" t="s">
+        <v>197</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D291" t="n">
+        <v>89928</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>196</v>
+      </c>
+      <c r="B292" t="s">
+        <v>197</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D292" t="n">
+        <v>89928</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>198</v>
+      </c>
+      <c r="B293" t="s">
+        <v>199</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7697286</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>198</v>
+      </c>
+      <c r="B294" t="s">
+        <v>199</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D294" t="n">
+        <v>7697286</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>198</v>
+      </c>
+      <c r="B295" t="s">
+        <v>199</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7697286</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>200</v>
+      </c>
+      <c r="B296" t="s">
+        <v>201</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D296" t="n">
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>200</v>
+      </c>
+      <c r="B297" t="s">
+        <v>201</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D297" t="n">
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>200</v>
+      </c>
+      <c r="B298" t="s">
+        <v>201</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D298" t="n">
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>202</v>
+      </c>
+      <c r="B299" t="s">
+        <v>203</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>202</v>
+      </c>
+      <c r="B300" t="s">
+        <v>203</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>202</v>
+      </c>
+      <c r="B301" t="s">
+        <v>203</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>204</v>
+      </c>
+      <c r="B302" t="s">
+        <v>205</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3290850</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>204</v>
+      </c>
+      <c r="B303" t="s">
+        <v>205</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3290850</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>204</v>
+      </c>
+      <c r="B304" t="s">
+        <v>205</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3290850</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>206</v>
+      </c>
+      <c r="B305" t="s">
+        <v>207</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D305" t="n">
+        <v>16771</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>206</v>
+      </c>
+      <c r="B306" t="s">
+        <v>207</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D306" t="n">
+        <v>16771</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>206</v>
+      </c>
+      <c r="B307" t="s">
+        <v>207</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D307" t="n">
+        <v>16771</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>208</v>
+      </c>
+      <c r="B308" t="s">
+        <v>209</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D308" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>208</v>
+      </c>
+      <c r="B309" t="s">
+        <v>209</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D309" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>208</v>
+      </c>
+      <c r="B310" t="s">
+        <v>209</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D310" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>210</v>
+      </c>
+      <c r="B311" t="s">
+        <v>211</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D311" t="n">
+        <v>272944</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>210</v>
+      </c>
+      <c r="B312" t="s">
+        <v>211</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D312" t="n">
+        <v>272944</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>210</v>
+      </c>
+      <c r="B313" t="s">
+        <v>211</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D313" t="n">
+        <v>272944</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>212</v>
+      </c>
+      <c r="B314" t="s">
+        <v>213</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D314" t="n">
+        <v>14159178</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>212</v>
+      </c>
+      <c r="B315" t="s">
+        <v>213</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D315" t="n">
+        <v>14159178</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>212</v>
+      </c>
+      <c r="B316" t="s">
+        <v>213</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D316" t="n">
+        <v>14159178</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>214</v>
+      </c>
+      <c r="B317" t="s">
+        <v>215</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D317" t="n">
+        <v>9366100</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>214</v>
+      </c>
+      <c r="B318" t="s">
+        <v>215</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9366100</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>214</v>
+      </c>
+      <c r="B319" t="s">
+        <v>215</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D319" t="n">
+        <v>9366100</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>216</v>
+      </c>
+      <c r="B320" t="s">
+        <v>217</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1461180</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>216</v>
+      </c>
+      <c r="B321" t="s">
+        <v>217</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1461180</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>216</v>
+      </c>
+      <c r="B322" t="s">
+        <v>217</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1461180</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>218</v>
+      </c>
+      <c r="B323" t="s">
+        <v>219</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D323" t="n">
+        <v>7519104</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>218</v>
+      </c>
+      <c r="B324" t="s">
+        <v>219</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D324" t="n">
+        <v>7519104</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>218</v>
+      </c>
+      <c r="B325" t="s">
+        <v>219</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7519104</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>220</v>
+      </c>
+      <c r="B326" t="s">
+        <v>221</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D326" t="n">
+        <v>111989</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>220</v>
+      </c>
+      <c r="B327" t="s">
+        <v>221</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D327" t="n">
+        <v>111989</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>220</v>
+      </c>
+      <c r="B328" t="s">
+        <v>221</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D328" t="n">
+        <v>111989</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>222</v>
+      </c>
+      <c r="B329" t="s">
+        <v>223</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D329" t="n">
+        <v>683375</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>222</v>
+      </c>
+      <c r="B330" t="s">
+        <v>223</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D330" t="n">
+        <v>683375</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>222</v>
+      </c>
+      <c r="B331" t="s">
+        <v>223</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D331" t="n">
+        <v>683375</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>224</v>
+      </c>
+      <c r="B332" t="s">
+        <v>225</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3637335</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>224</v>
+      </c>
+      <c r="B333" t="s">
+        <v>225</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3637335</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>224</v>
+      </c>
+      <c r="B334" t="s">
+        <v>225</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3637335</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>226</v>
+      </c>
+      <c r="B335" t="s">
+        <v>227</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D335" t="n">
+        <v>32144442</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>226</v>
+      </c>
+      <c r="B336" t="s">
+        <v>227</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D336" t="n">
+        <v>32144442</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>226</v>
+      </c>
+      <c r="B337" t="s">
+        <v>227</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D337" t="n">
+        <v>32144442</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>228</v>
+      </c>
+      <c r="B338" t="s">
+        <v>229</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D338" t="n">
+        <v>175370</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>228</v>
+      </c>
+      <c r="B339" t="s">
+        <v>229</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D339" t="n">
+        <v>175370</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>228</v>
+      </c>
+      <c r="B340" t="s">
+        <v>229</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D340" t="n">
+        <v>175370</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>230</v>
+      </c>
+      <c r="B341" t="s">
+        <v>231</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D341" t="n">
+        <v>551768</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>230</v>
+      </c>
+      <c r="B342" t="s">
+        <v>231</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D342" t="n">
+        <v>551768</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>230</v>
+      </c>
+      <c r="B343" t="s">
+        <v>231</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D343" t="n">
+        <v>551768</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>232</v>
+      </c>
+      <c r="B344" t="s">
+        <v>233</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D344" t="n">
+        <v>4499649</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>232</v>
+      </c>
+      <c r="B345" t="s">
+        <v>233</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D345" t="n">
+        <v>4499649</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>232</v>
+      </c>
+      <c r="B346" t="s">
+        <v>233</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D346" t="n">
+        <v>4499649</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>234</v>
+      </c>
+      <c r="B347" t="s">
+        <v>235</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D347" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>234</v>
+      </c>
+      <c r="B348" t="s">
+        <v>235</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D348" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>234</v>
+      </c>
+      <c r="B349" t="s">
+        <v>235</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D349" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>236</v>
+      </c>
+      <c r="B350" t="s">
+        <v>237</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D350" t="n">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>236</v>
+      </c>
+      <c r="B351" t="s">
+        <v>237</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D351" t="n">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>236</v>
+      </c>
+      <c r="B352" t="s">
+        <v>237</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D352" t="n">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>238</v>
+      </c>
+      <c r="B353" t="s">
+        <v>239</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D353" t="n">
+        <v>309276</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>238</v>
+      </c>
+      <c r="B354" t="s">
+        <v>239</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D354" t="n">
+        <v>309276</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>238</v>
+      </c>
+      <c r="B355" t="s">
+        <v>239</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D355" t="n">
+        <v>309276</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>240</v>
+      </c>
+      <c r="B356" t="s">
+        <v>241</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1036592</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>240</v>
+      </c>
+      <c r="B357" t="s">
+        <v>241</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1036592</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>240</v>
+      </c>
+      <c r="B358" t="s">
+        <v>241</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1036592</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>242</v>
+      </c>
+      <c r="B359" t="s">
+        <v>243</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D359" t="n">
+        <v>398240</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>242</v>
+      </c>
+      <c r="B360" t="s">
+        <v>243</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D360" t="n">
+        <v>398240</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>242</v>
+      </c>
+      <c r="B361" t="s">
+        <v>243</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D361" t="n">
+        <v>398240</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>244</v>
+      </c>
+      <c r="B362" t="s">
+        <v>245</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D362" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>244</v>
+      </c>
+      <c r="B363" t="s">
+        <v>245</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D363" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>244</v>
+      </c>
+      <c r="B364" t="s">
+        <v>245</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D364" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>246</v>
+      </c>
+      <c r="B365" t="s">
+        <v>247</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D365" t="n">
+        <v>19597863</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>246</v>
+      </c>
+      <c r="B366" t="s">
+        <v>247</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D366" t="n">
+        <v>19597863</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>246</v>
+      </c>
+      <c r="B367" t="s">
+        <v>247</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D367" t="n">
+        <v>19597863</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>248</v>
+      </c>
+      <c r="B368" t="s">
+        <v>249</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D368" t="n">
+        <v>18196</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>248</v>
+      </c>
+      <c r="B369" t="s">
+        <v>249</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D369" t="n">
+        <v>18196</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>248</v>
+      </c>
+      <c r="B370" t="s">
+        <v>249</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D370" t="n">
+        <v>18196</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>250</v>
+      </c>
+      <c r="B371" t="s">
+        <v>251</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D371" t="n">
+        <v>27962</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>250</v>
+      </c>
+      <c r="B372" t="s">
+        <v>251</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D372" t="n">
+        <v>27962</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>250</v>
+      </c>
+      <c r="B373" t="s">
+        <v>251</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D373" t="n">
+        <v>27962</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>252</v>
+      </c>
+      <c r="B374" t="s">
+        <v>253</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D374" t="n">
+        <v>13375152</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>252</v>
+      </c>
+      <c r="B375" t="s">
+        <v>253</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D375" t="n">
+        <v>13375152</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>252</v>
+      </c>
+      <c r="B376" t="s">
+        <v>253</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D376" t="n">
+        <v>13375152</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>254</v>
+      </c>
+      <c r="B377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D377" t="n">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>254</v>
+      </c>
+      <c r="B378" t="s">
+        <v>255</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D378" t="n">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>254</v>
+      </c>
+      <c r="B379" t="s">
+        <v>255</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D379" t="n">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>256</v>
+      </c>
+      <c r="B380" t="s">
+        <v>257</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2967440</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>256</v>
+      </c>
+      <c r="B381" t="s">
+        <v>257</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2967440</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>256</v>
+      </c>
+      <c r="B382" t="s">
+        <v>257</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2967440</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>258</v>
+      </c>
+      <c r="B383" t="s">
+        <v>259</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D383" t="n">
+        <v>6974352</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>258</v>
+      </c>
+      <c r="B384" t="s">
+        <v>259</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D384" t="n">
+        <v>6974352</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>258</v>
+      </c>
+      <c r="B385" t="s">
+        <v>259</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D385" t="n">
+        <v>6974352</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>260</v>
+      </c>
+      <c r="B386" t="s">
+        <v>261</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D386" t="n">
+        <v>10841225</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>260</v>
+      </c>
+      <c r="B387" t="s">
+        <v>261</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D387" t="n">
+        <v>10841225</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>260</v>
+      </c>
+      <c r="B388" t="s">
+        <v>261</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D388" t="n">
+        <v>10841225</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
         <v>262</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B389" t="s">
         <v>263</v>
       </c>
-      <c r="C131" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D131" t="n">
+      <c r="C389" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D389" t="n">
+        <v>4540030</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>262</v>
+      </c>
+      <c r="B390" t="s">
+        <v>263</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D390" t="n">
+        <v>4540030</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>262</v>
+      </c>
+      <c r="B391" t="s">
+        <v>263</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D391" t="n">
         <v>4540030</v>
       </c>
     </row>
@@ -3132,6 +6771,12 @@
       <c r="C1" t="s">
         <v>264</v>
       </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3143,6 +6788,12 @@
       <c r="C2" t="n">
         <v>92510</v>
       </c>
+      <c r="D2" t="n">
+        <v>92510</v>
+      </c>
+      <c r="E2" t="n">
+        <v>92510</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3154,6 +6805,12 @@
       <c r="C3" t="n">
         <v>9727060</v>
       </c>
+      <c r="D3" t="n">
+        <v>9727060</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9727060</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3165,6 +6822,12 @@
       <c r="C4" t="n">
         <v>264316</v>
       </c>
+      <c r="D4" t="n">
+        <v>264316</v>
+      </c>
+      <c r="E4" t="n">
+        <v>264316</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3176,6 +6839,12 @@
       <c r="C5" t="n">
         <v>80070</v>
       </c>
+      <c r="D5" t="n">
+        <v>80070</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80070</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3187,6 +6856,12 @@
       <c r="C6" t="n">
         <v>49772572</v>
       </c>
+      <c r="D6" t="n">
+        <v>49772572</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49772572</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3195,9 +6870,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3209,6 +6884,12 @@
       <c r="C8" t="n">
         <v>62628</v>
       </c>
+      <c r="D8" t="n">
+        <v>62628</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62628</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3220,6 +6901,12 @@
       <c r="C9" t="n">
         <v>6798816</v>
       </c>
+      <c r="D9" t="n">
+        <v>6798816</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6798816</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3231,6 +6918,12 @@
       <c r="C10" t="n">
         <v>36150</v>
       </c>
+      <c r="D10" t="n">
+        <v>36150</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36150</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3242,6 +6935,12 @@
       <c r="C11" t="n">
         <v>1104480</v>
       </c>
+      <c r="D11" t="n">
+        <v>1104480</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1104480</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3253,6 +6952,12 @@
       <c r="C12" t="n">
         <v>10314</v>
       </c>
+      <c r="D12" t="n">
+        <v>10314</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10314</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3264,6 +6969,12 @@
       <c r="C13" t="n">
         <v>472188</v>
       </c>
+      <c r="D13" t="n">
+        <v>472188</v>
+      </c>
+      <c r="E13" t="n">
+        <v>472188</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3275,6 +6986,12 @@
       <c r="C14" t="n">
         <v>14032662</v>
       </c>
+      <c r="D14" t="n">
+        <v>14032662</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14032662</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3286,6 +7003,12 @@
       <c r="C15" t="n">
         <v>220281</v>
       </c>
+      <c r="D15" t="n">
+        <v>220281</v>
+      </c>
+      <c r="E15" t="n">
+        <v>220281</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3297,6 +7020,12 @@
       <c r="C16" t="n">
         <v>11160072</v>
       </c>
+      <c r="D16" t="n">
+        <v>11160072</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11160072</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3308,6 +7037,12 @@
       <c r="C17" t="n">
         <v>9071208</v>
       </c>
+      <c r="D17" t="n">
+        <v>9071208</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9071208</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3317,7 +7052,13 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>9022026</v>
+        <v>1256164</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1256164</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1256164</v>
       </c>
     </row>
     <row r="19">
@@ -3328,7 +7069,13 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1256164</v>
+        <v>8555292</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8555292</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8555292</v>
       </c>
     </row>
     <row r="20">
@@ -3339,7 +7086,13 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>8555292</v>
+        <v>76398</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76398</v>
+      </c>
+      <c r="E20" t="n">
+        <v>76398</v>
       </c>
     </row>
     <row r="21">
@@ -3350,7 +7103,13 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>76398</v>
+        <v>4125489</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4125489</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4125489</v>
       </c>
     </row>
     <row r="22">
@@ -3361,7 +7120,13 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>4125489</v>
+        <v>6494785</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6494785</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6494785</v>
       </c>
     </row>
     <row r="23">
@@ -3372,7 +7137,13 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>6494785</v>
+        <v>249636</v>
+      </c>
+      <c r="D23" t="n">
+        <v>249636</v>
+      </c>
+      <c r="E23" t="n">
+        <v>249636</v>
       </c>
     </row>
     <row r="24">
@@ -3383,7 +7154,13 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>249636</v>
+        <v>83750346</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83750346</v>
+      </c>
+      <c r="E24" t="n">
+        <v>83750346</v>
       </c>
     </row>
     <row r="25">
@@ -3394,7 +7171,13 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>83750346</v>
+        <v>4776606</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4776606</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4776606</v>
       </c>
     </row>
     <row r="26">
@@ -3405,7 +7188,13 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>4776606</v>
+        <v>185325</v>
+      </c>
+      <c r="D26" t="n">
+        <v>185325</v>
+      </c>
+      <c r="E26" t="n">
+        <v>185325</v>
       </c>
     </row>
     <row r="27">
@@ -3416,7 +7205,13 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>185325</v>
+        <v>2199829</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2199829</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2199829</v>
       </c>
     </row>
     <row r="28">
@@ -3427,7 +7222,13 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>2199829</v>
+        <v>137061</v>
+      </c>
+      <c r="D28" t="n">
+        <v>137061</v>
+      </c>
+      <c r="E28" t="n">
+        <v>137061</v>
       </c>
     </row>
     <row r="29">
@@ -3438,7 +7239,13 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>137061</v>
+        <v>9022026</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9022026</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9022026</v>
       </c>
     </row>
     <row r="30">
@@ -3451,6 +7258,12 @@
       <c r="C30" t="n">
         <v>57084</v>
       </c>
+      <c r="D30" t="n">
+        <v>57084</v>
+      </c>
+      <c r="E30" t="n">
+        <v>57084</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3462,6 +7275,12 @@
       <c r="C31" t="n">
         <v>15765</v>
       </c>
+      <c r="D31" t="n">
+        <v>15765</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15765</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3473,6 +7292,12 @@
       <c r="C32" t="n">
         <v>284144</v>
       </c>
+      <c r="D32" t="n">
+        <v>284144</v>
+      </c>
+      <c r="E32" t="n">
+        <v>284144</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3484,6 +7309,12 @@
       <c r="C33" t="n">
         <v>581848</v>
       </c>
+      <c r="D33" t="n">
+        <v>581848</v>
+      </c>
+      <c r="E33" t="n">
+        <v>581848</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3495,6 +7326,12 @@
       <c r="C34" t="n">
         <v>62030250</v>
       </c>
+      <c r="D34" t="n">
+        <v>62030250</v>
+      </c>
+      <c r="E34" t="n">
+        <v>62030250</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3506,6 +7343,12 @@
       <c r="C35" t="n">
         <v>1202688</v>
       </c>
+      <c r="D35" t="n">
+        <v>1202688</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1202688</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3517,6 +7360,12 @@
       <c r="C36" t="n">
         <v>436044</v>
       </c>
+      <c r="D36" t="n">
+        <v>436044</v>
+      </c>
+      <c r="E36" t="n">
+        <v>436044</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3528,6 +7377,12 @@
       <c r="C37" t="n">
         <v>16632</v>
       </c>
+      <c r="D37" t="n">
+        <v>16632</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16632</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3539,6 +7394,12 @@
       <c r="C38" t="n">
         <v>40528416</v>
       </c>
+      <c r="D38" t="n">
+        <v>40528416</v>
+      </c>
+      <c r="E38" t="n">
+        <v>40528416</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3550,6 +7411,12 @@
       <c r="C39" t="n">
         <v>90024</v>
       </c>
+      <c r="D39" t="n">
+        <v>90024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>90024</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3561,6 +7428,12 @@
       <c r="C40" t="n">
         <v>237765</v>
       </c>
+      <c r="D40" t="n">
+        <v>237765</v>
+      </c>
+      <c r="E40" t="n">
+        <v>237765</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3572,6 +7445,12 @@
       <c r="C41" t="n">
         <v>1107414</v>
       </c>
+      <c r="D41" t="n">
+        <v>1107414</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1107414</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3583,6 +7462,12 @@
       <c r="C42" t="n">
         <v>786618</v>
       </c>
+      <c r="D42" t="n">
+        <v>786618</v>
+      </c>
+      <c r="E42" t="n">
+        <v>786618</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -3594,6 +7479,12 @@
       <c r="C43" t="n">
         <v>5757816</v>
       </c>
+      <c r="D43" t="n">
+        <v>5757816</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5757816</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -3605,6 +7496,12 @@
       <c r="C44" t="n">
         <v>2857149</v>
       </c>
+      <c r="D44" t="n">
+        <v>2857149</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2857149</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -3616,6 +7513,12 @@
       <c r="C45" t="n">
         <v>6703950</v>
       </c>
+      <c r="D45" t="n">
+        <v>6703950</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6703950</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -3627,6 +7530,12 @@
       <c r="C46" t="n">
         <v>1382832</v>
       </c>
+      <c r="D46" t="n">
+        <v>1382832</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1382832</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -3638,6 +7547,12 @@
       <c r="C47" t="n">
         <v>93480</v>
       </c>
+      <c r="D47" t="n">
+        <v>93480</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93480</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -3649,6 +7564,12 @@
       <c r="C48" t="n">
         <v>6600104</v>
       </c>
+      <c r="D48" t="n">
+        <v>6600104</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6600104</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -3660,6 +7581,12 @@
       <c r="C49" t="n">
         <v>2220765</v>
       </c>
+      <c r="D49" t="n">
+        <v>2220765</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2220765</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3671,6 +7598,12 @@
       <c r="C50" t="n">
         <v>33626</v>
       </c>
+      <c r="D50" t="n">
+        <v>33626</v>
+      </c>
+      <c r="E50" t="n">
+        <v>33626</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -3682,6 +7615,12 @@
       <c r="C51" t="n">
         <v>490048500</v>
       </c>
+      <c r="D51" t="n">
+        <v>490048500</v>
+      </c>
+      <c r="E51" t="n">
+        <v>490048500</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -3693,6 +7632,12 @@
       <c r="C52" t="n">
         <v>67842900</v>
       </c>
+      <c r="D52" t="n">
+        <v>67842900</v>
+      </c>
+      <c r="E52" t="n">
+        <v>67842900</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -3704,6 +7649,12 @@
       <c r="C53" t="n">
         <v>200590</v>
       </c>
+      <c r="D53" t="n">
+        <v>200590</v>
+      </c>
+      <c r="E53" t="n">
+        <v>200590</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -3715,6 +7666,12 @@
       <c r="C54" t="n">
         <v>132790</v>
       </c>
+      <c r="D54" t="n">
+        <v>132790</v>
+      </c>
+      <c r="E54" t="n">
+        <v>132790</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -3726,6 +7683,12 @@
       <c r="C55" t="n">
         <v>15336</v>
       </c>
+      <c r="D55" t="n">
+        <v>15336</v>
+      </c>
+      <c r="E55" t="n">
+        <v>15336</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -3737,6 +7700,12 @@
       <c r="C56" t="n">
         <v>17406096</v>
       </c>
+      <c r="D56" t="n">
+        <v>17406096</v>
+      </c>
+      <c r="E56" t="n">
+        <v>17406096</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -3748,6 +7717,12 @@
       <c r="C57" t="n">
         <v>26422</v>
       </c>
+      <c r="D57" t="n">
+        <v>26422</v>
+      </c>
+      <c r="E57" t="n">
+        <v>26422</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -3759,6 +7734,12 @@
       <c r="C58" t="n">
         <v>34398</v>
       </c>
+      <c r="D58" t="n">
+        <v>34398</v>
+      </c>
+      <c r="E58" t="n">
+        <v>34398</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -3770,6 +7751,12 @@
       <c r="C59" t="n">
         <v>710424</v>
       </c>
+      <c r="D59" t="n">
+        <v>710424</v>
+      </c>
+      <c r="E59" t="n">
+        <v>710424</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -3781,6 +7768,12 @@
       <c r="C60" t="n">
         <v>2104942</v>
       </c>
+      <c r="D60" t="n">
+        <v>2104942</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2104942</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -3792,6 +7785,12 @@
       <c r="C61" t="n">
         <v>35577</v>
       </c>
+      <c r="D61" t="n">
+        <v>35577</v>
+      </c>
+      <c r="E61" t="n">
+        <v>35577</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -3803,6 +7802,12 @@
       <c r="C62" t="n">
         <v>1415856</v>
       </c>
+      <c r="D62" t="n">
+        <v>1415856</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1415856</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -3814,6 +7819,12 @@
       <c r="C63" t="n">
         <v>3123120</v>
       </c>
+      <c r="D63" t="n">
+        <v>3123120</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3123120</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -3825,6 +7836,12 @@
       <c r="C64" t="n">
         <v>33448</v>
       </c>
+      <c r="D64" t="n">
+        <v>33448</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33448</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -3836,6 +7853,12 @@
       <c r="C65" t="n">
         <v>97704</v>
       </c>
+      <c r="D65" t="n">
+        <v>97704</v>
+      </c>
+      <c r="E65" t="n">
+        <v>97704</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -3847,6 +7870,12 @@
       <c r="C66" t="n">
         <v>19851012</v>
       </c>
+      <c r="D66" t="n">
+        <v>19851012</v>
+      </c>
+      <c r="E66" t="n">
+        <v>19851012</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -3858,6 +7887,12 @@
       <c r="C67" t="n">
         <v>13264467</v>
       </c>
+      <c r="D67" t="n">
+        <v>13264467</v>
+      </c>
+      <c r="E67" t="n">
+        <v>13264467</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -3869,6 +7904,12 @@
       <c r="C68" t="n">
         <v>111986</v>
       </c>
+      <c r="D68" t="n">
+        <v>111986</v>
+      </c>
+      <c r="E68" t="n">
+        <v>111986</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -3880,6 +7921,12 @@
       <c r="C69" t="n">
         <v>47775</v>
       </c>
+      <c r="D69" t="n">
+        <v>47775</v>
+      </c>
+      <c r="E69" t="n">
+        <v>47775</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -3891,6 +7938,12 @@
       <c r="C70" t="n">
         <v>11598069</v>
       </c>
+      <c r="D70" t="n">
+        <v>11598069</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11598069</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -3902,6 +7955,12 @@
       <c r="C71" t="n">
         <v>609525</v>
       </c>
+      <c r="D71" t="n">
+        <v>609525</v>
+      </c>
+      <c r="E71" t="n">
+        <v>609525</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -3913,6 +7972,12 @@
       <c r="C72" t="n">
         <v>18900</v>
       </c>
+      <c r="D72" t="n">
+        <v>18900</v>
+      </c>
+      <c r="E72" t="n">
+        <v>18900</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -3924,6 +7989,12 @@
       <c r="C73" t="n">
         <v>7894612</v>
       </c>
+      <c r="D73" t="n">
+        <v>7894612</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7894612</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -3935,6 +8006,12 @@
       <c r="C74" t="n">
         <v>29080</v>
       </c>
+      <c r="D74" t="n">
+        <v>29080</v>
+      </c>
+      <c r="E74" t="n">
+        <v>29080</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -3946,6 +8023,12 @@
       <c r="C75" t="n">
         <v>16732</v>
       </c>
+      <c r="D75" t="n">
+        <v>16732</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16732</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -3957,6 +8040,12 @@
       <c r="C76" t="n">
         <v>37180</v>
       </c>
+      <c r="D76" t="n">
+        <v>37180</v>
+      </c>
+      <c r="E76" t="n">
+        <v>37180</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -3968,6 +8057,12 @@
       <c r="C77" t="n">
         <v>11966</v>
       </c>
+      <c r="D77" t="n">
+        <v>11966</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11966</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -3979,6 +8074,12 @@
       <c r="C78" t="n">
         <v>1501905</v>
       </c>
+      <c r="D78" t="n">
+        <v>1501905</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1501905</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -3990,6 +8091,12 @@
       <c r="C79" t="n">
         <v>19791619</v>
       </c>
+      <c r="D79" t="n">
+        <v>19791619</v>
+      </c>
+      <c r="E79" t="n">
+        <v>19791619</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -4001,6 +8108,12 @@
       <c r="C80" t="n">
         <v>752705</v>
       </c>
+      <c r="D80" t="n">
+        <v>752705</v>
+      </c>
+      <c r="E80" t="n">
+        <v>752705</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -4012,6 +8125,12 @@
       <c r="C81" t="n">
         <v>6940802</v>
       </c>
+      <c r="D81" t="n">
+        <v>6940802</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6940802</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -4023,6 +8142,12 @@
       <c r="C82" t="n">
         <v>759220</v>
       </c>
+      <c r="D82" t="n">
+        <v>759220</v>
+      </c>
+      <c r="E82" t="n">
+        <v>759220</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -4034,6 +8159,12 @@
       <c r="C83" t="n">
         <v>12281004</v>
       </c>
+      <c r="D83" t="n">
+        <v>12281004</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12281004</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -4045,6 +8176,12 @@
       <c r="C84" t="n">
         <v>112955152</v>
       </c>
+      <c r="D84" t="n">
+        <v>112955152</v>
+      </c>
+      <c r="E84" t="n">
+        <v>112955152</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -4056,6 +8193,12 @@
       <c r="C85" t="n">
         <v>44192241</v>
       </c>
+      <c r="D85" t="n">
+        <v>44192241</v>
+      </c>
+      <c r="E85" t="n">
+        <v>44192241</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -4067,6 +8210,12 @@
       <c r="C86" t="n">
         <v>21267</v>
       </c>
+      <c r="D86" t="n">
+        <v>21267</v>
+      </c>
+      <c r="E86" t="n">
+        <v>21267</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -4078,6 +8227,12 @@
       <c r="C87" t="n">
         <v>216027</v>
       </c>
+      <c r="D87" t="n">
+        <v>216027</v>
+      </c>
+      <c r="E87" t="n">
+        <v>216027</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -4089,6 +8244,12 @@
       <c r="C88" t="n">
         <v>3364793</v>
       </c>
+      <c r="D88" t="n">
+        <v>3364793</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3364793</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -4100,6 +8261,12 @@
       <c r="C89" t="n">
         <v>280151</v>
       </c>
+      <c r="D89" t="n">
+        <v>280151</v>
+      </c>
+      <c r="E89" t="n">
+        <v>280151</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -4111,6 +8278,12 @@
       <c r="C90" t="n">
         <v>2103216</v>
       </c>
+      <c r="D90" t="n">
+        <v>2103216</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2103216</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -4122,6 +8295,12 @@
       <c r="C91" t="n">
         <v>24733995</v>
       </c>
+      <c r="D91" t="n">
+        <v>24733995</v>
+      </c>
+      <c r="E91" t="n">
+        <v>24733995</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -4133,6 +8312,12 @@
       <c r="C92" t="n">
         <v>15216</v>
       </c>
+      <c r="D92" t="n">
+        <v>15216</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15216</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -4144,6 +8329,12 @@
       <c r="C93" t="n">
         <v>417582</v>
       </c>
+      <c r="D93" t="n">
+        <v>417582</v>
+      </c>
+      <c r="E93" t="n">
+        <v>417582</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -4155,6 +8346,12 @@
       <c r="C94" t="n">
         <v>258318</v>
       </c>
+      <c r="D94" t="n">
+        <v>258318</v>
+      </c>
+      <c r="E94" t="n">
+        <v>258318</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -4166,6 +8363,12 @@
       <c r="C95" t="n">
         <v>8206956</v>
       </c>
+      <c r="D95" t="n">
+        <v>8206956</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8206956</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -4177,6 +8380,12 @@
       <c r="C96" t="n">
         <v>78444</v>
       </c>
+      <c r="D96" t="n">
+        <v>78444</v>
+      </c>
+      <c r="E96" t="n">
+        <v>78444</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -4188,6 +8397,12 @@
       <c r="C97" t="n">
         <v>8987</v>
       </c>
+      <c r="D97" t="n">
+        <v>8987</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8987</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -4199,6 +8414,12 @@
       <c r="C98" t="n">
         <v>89928</v>
       </c>
+      <c r="D98" t="n">
+        <v>89928</v>
+      </c>
+      <c r="E98" t="n">
+        <v>89928</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -4210,6 +8431,12 @@
       <c r="C99" t="n">
         <v>7697286</v>
       </c>
+      <c r="D99" t="n">
+        <v>7697286</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7697286</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -4221,6 +8448,12 @@
       <c r="C100" t="n">
         <v>53700</v>
       </c>
+      <c r="D100" t="n">
+        <v>53700</v>
+      </c>
+      <c r="E100" t="n">
+        <v>53700</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -4232,6 +8465,12 @@
       <c r="C101" t="n">
         <v>1368</v>
       </c>
+      <c r="D101" t="n">
+        <v>1368</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1368</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -4243,6 +8482,12 @@
       <c r="C102" t="n">
         <v>3290850</v>
       </c>
+      <c r="D102" t="n">
+        <v>3290850</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3290850</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -4254,6 +8499,12 @@
       <c r="C103" t="n">
         <v>16771</v>
       </c>
+      <c r="D103" t="n">
+        <v>16771</v>
+      </c>
+      <c r="E103" t="n">
+        <v>16771</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -4265,6 +8516,12 @@
       <c r="C104" t="n">
         <v>618</v>
       </c>
+      <c r="D104" t="n">
+        <v>618</v>
+      </c>
+      <c r="E104" t="n">
+        <v>618</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -4276,6 +8533,12 @@
       <c r="C105" t="n">
         <v>272944</v>
       </c>
+      <c r="D105" t="n">
+        <v>272944</v>
+      </c>
+      <c r="E105" t="n">
+        <v>272944</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -4287,6 +8550,12 @@
       <c r="C106" t="n">
         <v>14159178</v>
       </c>
+      <c r="D106" t="n">
+        <v>14159178</v>
+      </c>
+      <c r="E106" t="n">
+        <v>14159178</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -4298,6 +8567,12 @@
       <c r="C107" t="n">
         <v>9366100</v>
       </c>
+      <c r="D107" t="n">
+        <v>9366100</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9366100</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -4309,6 +8584,12 @@
       <c r="C108" t="n">
         <v>1461180</v>
       </c>
+      <c r="D108" t="n">
+        <v>1461180</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1461180</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -4320,6 +8601,12 @@
       <c r="C109" t="n">
         <v>7519104</v>
       </c>
+      <c r="D109" t="n">
+        <v>7519104</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7519104</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -4331,6 +8618,12 @@
       <c r="C110" t="n">
         <v>111989</v>
       </c>
+      <c r="D110" t="n">
+        <v>111989</v>
+      </c>
+      <c r="E110" t="n">
+        <v>111989</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -4342,6 +8635,12 @@
       <c r="C111" t="n">
         <v>683375</v>
       </c>
+      <c r="D111" t="n">
+        <v>683375</v>
+      </c>
+      <c r="E111" t="n">
+        <v>683375</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -4353,6 +8652,12 @@
       <c r="C112" t="n">
         <v>3637335</v>
       </c>
+      <c r="D112" t="n">
+        <v>3637335</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3637335</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -4364,6 +8669,12 @@
       <c r="C113" t="n">
         <v>32144442</v>
       </c>
+      <c r="D113" t="n">
+        <v>32144442</v>
+      </c>
+      <c r="E113" t="n">
+        <v>32144442</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -4375,6 +8686,12 @@
       <c r="C114" t="n">
         <v>175370</v>
       </c>
+      <c r="D114" t="n">
+        <v>175370</v>
+      </c>
+      <c r="E114" t="n">
+        <v>175370</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -4386,6 +8703,12 @@
       <c r="C115" t="n">
         <v>551768</v>
       </c>
+      <c r="D115" t="n">
+        <v>551768</v>
+      </c>
+      <c r="E115" t="n">
+        <v>551768</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -4397,6 +8720,12 @@
       <c r="C116" t="n">
         <v>4499649</v>
       </c>
+      <c r="D116" t="n">
+        <v>4499649</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4499649</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -4408,6 +8737,12 @@
       <c r="C117" t="n">
         <v>4400</v>
       </c>
+      <c r="D117" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -4419,6 +8754,12 @@
       <c r="C118" t="n">
         <v>7560</v>
       </c>
+      <c r="D118" t="n">
+        <v>7560</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7560</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -4430,6 +8771,12 @@
       <c r="C119" t="n">
         <v>309276</v>
       </c>
+      <c r="D119" t="n">
+        <v>309276</v>
+      </c>
+      <c r="E119" t="n">
+        <v>309276</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -4441,6 +8788,12 @@
       <c r="C120" t="n">
         <v>1036592</v>
       </c>
+      <c r="D120" t="n">
+        <v>1036592</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1036592</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -4452,6 +8805,12 @@
       <c r="C121" t="n">
         <v>398240</v>
       </c>
+      <c r="D121" t="n">
+        <v>398240</v>
+      </c>
+      <c r="E121" t="n">
+        <v>398240</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -4463,6 +8822,12 @@
       <c r="C122" t="n">
         <v>640</v>
       </c>
+      <c r="D122" t="n">
+        <v>640</v>
+      </c>
+      <c r="E122" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -4474,6 +8839,12 @@
       <c r="C123" t="n">
         <v>19597863</v>
       </c>
+      <c r="D123" t="n">
+        <v>19597863</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19597863</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -4485,6 +8856,12 @@
       <c r="C124" t="n">
         <v>18196</v>
       </c>
+      <c r="D124" t="n">
+        <v>18196</v>
+      </c>
+      <c r="E124" t="n">
+        <v>18196</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -4496,6 +8873,12 @@
       <c r="C125" t="n">
         <v>27962</v>
       </c>
+      <c r="D125" t="n">
+        <v>27962</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27962</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -4507,6 +8890,12 @@
       <c r="C126" t="n">
         <v>13375152</v>
       </c>
+      <c r="D126" t="n">
+        <v>13375152</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13375152</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -4518,6 +8907,12 @@
       <c r="C127" t="n">
         <v>67900</v>
       </c>
+      <c r="D127" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E127" t="n">
+        <v>67900</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -4529,6 +8924,12 @@
       <c r="C128" t="n">
         <v>2967440</v>
       </c>
+      <c r="D128" t="n">
+        <v>2967440</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2967440</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -4540,6 +8941,12 @@
       <c r="C129" t="n">
         <v>6974352</v>
       </c>
+      <c r="D129" t="n">
+        <v>6974352</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6974352</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -4551,6 +8958,12 @@
       <c r="C130" t="n">
         <v>10841225</v>
       </c>
+      <c r="D130" t="n">
+        <v>10841225</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10841225</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -4560,6 +8973,12 @@
         <v>263</v>
       </c>
       <c r="C131" t="n">
+        <v>4540030</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4540030</v>
+      </c>
+      <c r="E131" t="n">
         <v>4540030</v>
       </c>
     </row>

--- a/user-data/poorest-20-percent/poorest-20-percent.xlsx
+++ b/user-data/poorest-20-percent/poorest-20-percent.xlsx
@@ -826,7 +826,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 10</t>
+    <t xml:space="preserve">Source: 9</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 2</t>
